--- a/Data/New_Data.Report_notes.xlsx
+++ b/Data/New_Data.Report_notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD_code\WY-zoops\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC292357-D417-4EBC-A89D-D95289FBFBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D279D9D-FF79-4809-B25B-C6788C29E0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{EADD74FC-C1F3-4C62-A90A-5F2E1D7E5C7B}"/>
   </bookViews>
@@ -1654,8 +1654,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2108,15 +2108,15 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A2,"_")</f>
+        <f t="shared" ref="B2:B65" si="0">_xlfn.TEXTBEFORE(A2,"_")</f>
         <v>ALC</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f>MID(A2, FIND("_", A2) + 1, FIND("_", A2, FIND("_", A2) + 1) - FIND("_", A2) - 1)</f>
+        <f t="shared" ref="C2:C65" si="1">MID(A2, FIND("_", A2) + 1, FIND("_", A2, FIND("_", A2) + 1) - FIND("_", A2) - 1)</f>
         <v>P1</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f>RIGHT(A2, LEN(A2) - FIND("_", A2, FIND("_", A2) + 1))</f>
+        <f t="shared" ref="D2:D65" si="2">RIGHT(A2, LEN(A2) - FIND("_", A2, FIND("_", A2) + 1))</f>
         <v>20210614</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -2159,15 +2159,15 @@
         <v>19</v>
       </c>
       <c r="B3" t="str">
-        <f>_xlfn.TEXTBEFORE(A3,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALC</v>
       </c>
       <c r="C3" t="str">
-        <f>MID(A3, FIND("_", A3) + 1, FIND("_", A3, FIND("_", A3) + 1) - FIND("_", A3) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P1</v>
       </c>
       <c r="D3" t="str">
-        <f>RIGHT(A3, LEN(A3) - FIND("_", A3, FIND("_", A3) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20210720</v>
       </c>
       <c r="E3" t="s">
@@ -2209,15 +2209,15 @@
         <v>22</v>
       </c>
       <c r="B4" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A4,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALC</v>
       </c>
       <c r="C4" s="4" t="str">
-        <f>MID(A4, FIND("_", A4) + 1, FIND("_", A4, FIND("_", A4) + 1) - FIND("_", A4) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P1</v>
       </c>
       <c r="D4" s="4" t="str">
-        <f>RIGHT(A4, LEN(A4) - FIND("_", A4, FIND("_", A4) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20210824</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -2262,15 +2262,15 @@
         <v>16</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A5,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALC</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f>MID(A5, FIND("_", A5) + 1, FIND("_", A5, FIND("_", A5) + 1) - FIND("_", A5) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P2</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f>RIGHT(A5, LEN(A5) - FIND("_", A5, FIND("_", A5) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20210614</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -2313,15 +2313,15 @@
         <v>20</v>
       </c>
       <c r="B6" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A6,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALC</v>
       </c>
       <c r="C6" s="4" t="str">
-        <f>MID(A6, FIND("_", A6) + 1, FIND("_", A6, FIND("_", A6) + 1) - FIND("_", A6) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P2</v>
       </c>
       <c r="D6" s="4" t="str">
-        <f>RIGHT(A6, LEN(A6) - FIND("_", A6, FIND("_", A6) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20210720</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -2366,15 +2366,15 @@
         <v>23</v>
       </c>
       <c r="B7" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A7,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALC</v>
       </c>
       <c r="C7" s="4" t="str">
-        <f>MID(A7, FIND("_", A7) + 1, FIND("_", A7, FIND("_", A7) + 1) - FIND("_", A7) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P2</v>
       </c>
       <c r="D7" s="4" t="str">
-        <f>RIGHT(A7, LEN(A7) - FIND("_", A7, FIND("_", A7) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20210824</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -2419,15 +2419,15 @@
         <v>18</v>
       </c>
       <c r="B8" t="str">
-        <f>_xlfn.TEXTBEFORE(A8,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALC</v>
       </c>
       <c r="C8" t="str">
-        <f>MID(A8, FIND("_", A8) + 1, FIND("_", A8, FIND("_", A8) + 1) - FIND("_", A8) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P3</v>
       </c>
       <c r="D8" t="str">
-        <f>RIGHT(A8, LEN(A8) - FIND("_", A8, FIND("_", A8) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20210614</v>
       </c>
       <c r="E8" t="s">
@@ -2469,15 +2469,15 @@
         <v>21</v>
       </c>
       <c r="B9" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A9,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALC</v>
       </c>
       <c r="C9" s="4" t="str">
-        <f>MID(A9, FIND("_", A9) + 1, FIND("_", A9, FIND("_", A9) + 1) - FIND("_", A9) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P3</v>
       </c>
       <c r="D9" s="4" t="str">
-        <f>RIGHT(A9, LEN(A9) - FIND("_", A9, FIND("_", A9) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20210720</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -2522,15 +2522,15 @@
         <v>24</v>
       </c>
       <c r="B10" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A10,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALC</v>
       </c>
       <c r="C10" s="4" t="str">
-        <f>MID(A10, FIND("_", A10) + 1, FIND("_", A10, FIND("_", A10) + 1) - FIND("_", A10) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P3</v>
       </c>
       <c r="D10" s="4" t="str">
-        <f>RIGHT(A10, LEN(A10) - FIND("_", A10, FIND("_", A10) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20210824</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -2575,15 +2575,15 @@
         <v>25</v>
       </c>
       <c r="B11" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A11,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALS</v>
       </c>
       <c r="C11" s="1" t="str">
-        <f>MID(A11, FIND("_", A11) + 1, FIND("_", A11, FIND("_", A11) + 1) - FIND("_", A11) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P1</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f>RIGHT(A11, LEN(A11) - FIND("_", A11, FIND("_", A11) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220603</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -2626,15 +2626,15 @@
         <v>28</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A12,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALS</v>
       </c>
       <c r="C12" s="2" t="str">
-        <f>MID(A12, FIND("_", A12) + 1, FIND("_", A12, FIND("_", A12) + 1) - FIND("_", A12) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P1</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f>RIGHT(A12, LEN(A12) - FIND("_", A12, FIND("_", A12) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220621</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -2677,15 +2677,15 @@
         <v>31</v>
       </c>
       <c r="B13" t="str">
-        <f>_xlfn.TEXTBEFORE(A13,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALS</v>
       </c>
       <c r="C13" t="str">
-        <f>MID(A13, FIND("_", A13) + 1, FIND("_", A13, FIND("_", A13) + 1) - FIND("_", A13) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P1</v>
       </c>
       <c r="D13" t="str">
-        <f>RIGHT(A13, LEN(A13) - FIND("_", A13, FIND("_", A13) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220715</v>
       </c>
       <c r="E13" t="s">
@@ -2727,15 +2727,15 @@
         <v>36</v>
       </c>
       <c r="B14" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A14,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALS</v>
       </c>
       <c r="C14" s="1" t="str">
-        <f>MID(A14, FIND("_", A14) + 1, FIND("_", A14, FIND("_", A14) + 1) - FIND("_", A14) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P1</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f>RIGHT(A14, LEN(A14) - FIND("_", A14, FIND("_", A14) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220727</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -2778,15 +2778,15 @@
         <v>39</v>
       </c>
       <c r="B15" t="str">
-        <f>_xlfn.TEXTBEFORE(A15,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALS</v>
       </c>
       <c r="C15" t="str">
-        <f>MID(A15, FIND("_", A15) + 1, FIND("_", A15, FIND("_", A15) + 1) - FIND("_", A15) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P1</v>
       </c>
       <c r="D15" t="str">
-        <f>RIGHT(A15, LEN(A15) - FIND("_", A15, FIND("_", A15) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220812</v>
       </c>
       <c r="E15" t="s">
@@ -2828,15 +2828,15 @@
         <v>42</v>
       </c>
       <c r="B16" t="str">
-        <f>_xlfn.TEXTBEFORE(A16,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALS</v>
       </c>
       <c r="C16" t="str">
-        <f>MID(A16, FIND("_", A16) + 1, FIND("_", A16, FIND("_", A16) + 1) - FIND("_", A16) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P1</v>
       </c>
       <c r="D16" t="str">
-        <f>RIGHT(A16, LEN(A16) - FIND("_", A16, FIND("_", A16) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220902</v>
       </c>
       <c r="E16" t="s">
@@ -2878,15 +2878,15 @@
         <v>46</v>
       </c>
       <c r="B17" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A17,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALS</v>
       </c>
       <c r="C17" s="1" t="str">
-        <f>MID(A17, FIND("_", A17) + 1, FIND("_", A17, FIND("_", A17) + 1) - FIND("_", A17) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P1</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f>RIGHT(A17, LEN(A17) - FIND("_", A17, FIND("_", A17) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220912</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -2929,15 +2929,15 @@
         <v>49</v>
       </c>
       <c r="B18" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A18,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALS</v>
       </c>
       <c r="C18" s="1" t="str">
-        <f>MID(A18, FIND("_", A18) + 1, FIND("_", A18, FIND("_", A18) + 1) - FIND("_", A18) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P1</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>RIGHT(A18, LEN(A18) - FIND("_", A18, FIND("_", A18) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220928</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -2980,15 +2980,15 @@
         <v>52</v>
       </c>
       <c r="B19" t="str">
-        <f>_xlfn.TEXTBEFORE(A19,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALS</v>
       </c>
       <c r="C19" t="str">
-        <f>MID(A19, FIND("_", A19) + 1, FIND("_", A19, FIND("_", A19) + 1) - FIND("_", A19) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P1</v>
       </c>
       <c r="D19" t="str">
-        <f>RIGHT(A19, LEN(A19) - FIND("_", A19, FIND("_", A19) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20221017</v>
       </c>
       <c r="E19" t="s">
@@ -3030,15 +3030,15 @@
         <v>26</v>
       </c>
       <c r="B20" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A20,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALS</v>
       </c>
       <c r="C20" s="1" t="str">
-        <f>MID(A20, FIND("_", A20) + 1, FIND("_", A20, FIND("_", A20) + 1) - FIND("_", A20) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P2</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f>RIGHT(A20, LEN(A20) - FIND("_", A20, FIND("_", A20) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220603</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -3081,15 +3081,15 @@
         <v>29</v>
       </c>
       <c r="B21" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A21,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALS</v>
       </c>
       <c r="C21" s="2" t="str">
-        <f>MID(A21, FIND("_", A21) + 1, FIND("_", A21, FIND("_", A21) + 1) - FIND("_", A21) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P2</v>
       </c>
       <c r="D21" s="2" t="str">
-        <f>RIGHT(A21, LEN(A21) - FIND("_", A21, FIND("_", A21) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220621</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -3132,15 +3132,15 @@
         <v>34</v>
       </c>
       <c r="B22" t="str">
-        <f>_xlfn.TEXTBEFORE(A22,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALS</v>
       </c>
       <c r="C22" t="str">
-        <f>MID(A22, FIND("_", A22) + 1, FIND("_", A22, FIND("_", A22) + 1) - FIND("_", A22) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P2</v>
       </c>
       <c r="D22" t="str">
-        <f>RIGHT(A22, LEN(A22) - FIND("_", A22, FIND("_", A22) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220715</v>
       </c>
       <c r="E22" t="s">
@@ -3182,15 +3182,15 @@
         <v>37</v>
       </c>
       <c r="B23" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A23,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALS</v>
       </c>
       <c r="C23" s="1" t="str">
-        <f>MID(A23, FIND("_", A23) + 1, FIND("_", A23, FIND("_", A23) + 1) - FIND("_", A23) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P2</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f>RIGHT(A23, LEN(A23) - FIND("_", A23, FIND("_", A23) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220727</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -3233,15 +3233,15 @@
         <v>40</v>
       </c>
       <c r="B24" t="str">
-        <f>_xlfn.TEXTBEFORE(A24,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALS</v>
       </c>
       <c r="C24" t="str">
-        <f>MID(A24, FIND("_", A24) + 1, FIND("_", A24, FIND("_", A24) + 1) - FIND("_", A24) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P2</v>
       </c>
       <c r="D24" t="str">
-        <f>RIGHT(A24, LEN(A24) - FIND("_", A24, FIND("_", A24) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220812</v>
       </c>
       <c r="E24" t="s">
@@ -3283,15 +3283,15 @@
         <v>43</v>
       </c>
       <c r="B25" t="str">
-        <f>_xlfn.TEXTBEFORE(A25,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALS</v>
       </c>
       <c r="C25" t="str">
-        <f>MID(A25, FIND("_", A25) + 1, FIND("_", A25, FIND("_", A25) + 1) - FIND("_", A25) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P2</v>
       </c>
       <c r="D25" t="str">
-        <f>RIGHT(A25, LEN(A25) - FIND("_", A25, FIND("_", A25) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220902</v>
       </c>
       <c r="E25" t="s">
@@ -3333,15 +3333,15 @@
         <v>47</v>
       </c>
       <c r="B26" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A26,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALS</v>
       </c>
       <c r="C26" s="1" t="str">
-        <f>MID(A26, FIND("_", A26) + 1, FIND("_", A26, FIND("_", A26) + 1) - FIND("_", A26) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P2</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f>RIGHT(A26, LEN(A26) - FIND("_", A26, FIND("_", A26) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220912</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -3384,15 +3384,15 @@
         <v>50</v>
       </c>
       <c r="B27" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A27,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALS</v>
       </c>
       <c r="C27" s="1" t="str">
-        <f>MID(A27, FIND("_", A27) + 1, FIND("_", A27, FIND("_", A27) + 1) - FIND("_", A27) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P2</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f>RIGHT(A27, LEN(A27) - FIND("_", A27, FIND("_", A27) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220928</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -3435,15 +3435,15 @@
         <v>53</v>
       </c>
       <c r="B28" t="str">
-        <f>_xlfn.TEXTBEFORE(A28,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALS</v>
       </c>
       <c r="C28" t="str">
-        <f>MID(A28, FIND("_", A28) + 1, FIND("_", A28, FIND("_", A28) + 1) - FIND("_", A28) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P2</v>
       </c>
       <c r="D28" t="str">
-        <f>RIGHT(A28, LEN(A28) - FIND("_", A28, FIND("_", A28) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20221017</v>
       </c>
       <c r="E28" t="s">
@@ -3485,15 +3485,15 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A29,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALS</v>
       </c>
       <c r="C29" s="1" t="str">
-        <f>MID(A29, FIND("_", A29) + 1, FIND("_", A29, FIND("_", A29) + 1) - FIND("_", A29) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P3</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f>RIGHT(A29, LEN(A29) - FIND("_", A29, FIND("_", A29) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220603</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -3536,15 +3536,15 @@
         <v>30</v>
       </c>
       <c r="B30" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A30,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALS</v>
       </c>
       <c r="C30" s="2" t="str">
-        <f>MID(A30, FIND("_", A30) + 1, FIND("_", A30, FIND("_", A30) + 1) - FIND("_", A30) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P3</v>
       </c>
       <c r="D30" s="2" t="str">
-        <f>RIGHT(A30, LEN(A30) - FIND("_", A30, FIND("_", A30) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220621</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -3587,15 +3587,15 @@
         <v>35</v>
       </c>
       <c r="B31" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A31,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALS</v>
       </c>
       <c r="C31" s="4" t="str">
-        <f>MID(A31, FIND("_", A31) + 1, FIND("_", A31, FIND("_", A31) + 1) - FIND("_", A31) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P3</v>
       </c>
       <c r="D31" s="4" t="str">
-        <f>RIGHT(A31, LEN(A31) - FIND("_", A31, FIND("_", A31) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220715</v>
       </c>
       <c r="E31" s="4" t="s">
@@ -3640,15 +3640,15 @@
         <v>263</v>
       </c>
       <c r="B32" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A32,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALS</v>
       </c>
       <c r="C32" s="1" t="str">
-        <f>MID(A32, FIND("_", A32) + 1, FIND("_", A32, FIND("_", A32) + 1) - FIND("_", A32) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P3</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f>RIGHT(A32, LEN(A32) - FIND("_", A32, FIND("_", A32) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220725</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -3691,15 +3691,15 @@
         <v>38</v>
       </c>
       <c r="B33" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A33,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALS</v>
       </c>
       <c r="C33" s="1" t="str">
-        <f>MID(A33, FIND("_", A33) + 1, FIND("_", A33, FIND("_", A33) + 1) - FIND("_", A33) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P3</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f>RIGHT(A33, LEN(A33) - FIND("_", A33, FIND("_", A33) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220727</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -3742,15 +3742,15 @@
         <v>41</v>
       </c>
       <c r="B34" t="str">
-        <f>_xlfn.TEXTBEFORE(A34,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALS</v>
       </c>
       <c r="C34" t="str">
-        <f>MID(A34, FIND("_", A34) + 1, FIND("_", A34, FIND("_", A34) + 1) - FIND("_", A34) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P3</v>
       </c>
       <c r="D34" t="str">
-        <f>RIGHT(A34, LEN(A34) - FIND("_", A34, FIND("_", A34) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220812</v>
       </c>
       <c r="E34" t="s">
@@ -3792,15 +3792,15 @@
         <v>44</v>
       </c>
       <c r="B35" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A35,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALS</v>
       </c>
       <c r="C35" s="4" t="str">
-        <f>MID(A35, FIND("_", A35) + 1, FIND("_", A35, FIND("_", A35) + 1) - FIND("_", A35) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P3</v>
       </c>
       <c r="D35" s="4" t="str">
-        <f>RIGHT(A35, LEN(A35) - FIND("_", A35, FIND("_", A35) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220902</v>
       </c>
       <c r="E35" s="4" t="s">
@@ -3845,15 +3845,15 @@
         <v>48</v>
       </c>
       <c r="B36" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A36,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALS</v>
       </c>
       <c r="C36" s="1" t="str">
-        <f>MID(A36, FIND("_", A36) + 1, FIND("_", A36, FIND("_", A36) + 1) - FIND("_", A36) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P3</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f>RIGHT(A36, LEN(A36) - FIND("_", A36, FIND("_", A36) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220912</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -3896,15 +3896,15 @@
         <v>51</v>
       </c>
       <c r="B37" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A37,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALS</v>
       </c>
       <c r="C37" s="1" t="str">
-        <f>MID(A37, FIND("_", A37) + 1, FIND("_", A37, FIND("_", A37) + 1) - FIND("_", A37) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P3</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f>RIGHT(A37, LEN(A37) - FIND("_", A37, FIND("_", A37) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220928</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -3947,15 +3947,15 @@
         <v>54</v>
       </c>
       <c r="B38" t="str">
-        <f>_xlfn.TEXTBEFORE(A38,"_")</f>
+        <f t="shared" si="0"/>
         <v>ALS</v>
       </c>
       <c r="C38" t="str">
-        <f>MID(A38, FIND("_", A38) + 1, FIND("_", A38, FIND("_", A38) + 1) - FIND("_", A38) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P3</v>
       </c>
       <c r="D38" t="str">
-        <f>RIGHT(A38, LEN(A38) - FIND("_", A38, FIND("_", A38) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20221017</v>
       </c>
       <c r="E38" t="s">
@@ -3997,15 +3997,15 @@
         <v>55</v>
       </c>
       <c r="B39" s="8" t="str">
-        <f>_xlfn.TEXTBEFORE(A39,"_")</f>
+        <f t="shared" si="0"/>
         <v>BOY</v>
       </c>
       <c r="C39" s="8" t="str">
-        <f>MID(A39, FIND("_", A39) + 1, FIND("_", A39, FIND("_", A39) + 1) - FIND("_", A39) - 1)</f>
+        <f t="shared" si="1"/>
         <v>LPD</v>
       </c>
       <c r="D39" s="8" t="str">
-        <f>RIGHT(A39, LEN(A39) - FIND("_", A39, FIND("_", A39) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220510</v>
       </c>
       <c r="E39" s="8" t="s">
@@ -4047,15 +4047,15 @@
         <v>58</v>
       </c>
       <c r="B40" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A40,"_")</f>
+        <f t="shared" si="0"/>
         <v>BOY</v>
       </c>
       <c r="C40" s="2" t="str">
-        <f>MID(A40, FIND("_", A40) + 1, FIND("_", A40, FIND("_", A40) + 1) - FIND("_", A40) - 1)</f>
+        <f t="shared" si="1"/>
         <v>LPD</v>
       </c>
       <c r="D40" s="2" t="str">
-        <f>RIGHT(A40, LEN(A40) - FIND("_", A40, FIND("_", A40) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220615</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -4098,15 +4098,15 @@
         <v>61</v>
       </c>
       <c r="B41" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A41,"_")</f>
+        <f t="shared" si="0"/>
         <v>BOY</v>
       </c>
       <c r="C41" s="2" t="str">
-        <f>MID(A41, FIND("_", A41) + 1, FIND("_", A41, FIND("_", A41) + 1) - FIND("_", A41) - 1)</f>
+        <f t="shared" si="1"/>
         <v>LPD</v>
       </c>
       <c r="D41" s="2" t="str">
-        <f>RIGHT(A41, LEN(A41) - FIND("_", A41, FIND("_", A41) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220712</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -4149,15 +4149,15 @@
         <v>64</v>
       </c>
       <c r="B42" t="str">
-        <f>_xlfn.TEXTBEFORE(A42,"_")</f>
+        <f t="shared" si="0"/>
         <v>BOY</v>
       </c>
       <c r="C42" t="str">
-        <f>MID(A42, FIND("_", A42) + 1, FIND("_", A42, FIND("_", A42) + 1) - FIND("_", A42) - 1)</f>
+        <f t="shared" si="1"/>
         <v>LPD</v>
       </c>
       <c r="D42" t="str">
-        <f>RIGHT(A42, LEN(A42) - FIND("_", A42, FIND("_", A42) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220829</v>
       </c>
       <c r="E42" t="s">
@@ -4199,15 +4199,15 @@
         <v>67</v>
       </c>
       <c r="B43" t="str">
-        <f>_xlfn.TEXTBEFORE(A43,"_")</f>
+        <f t="shared" si="0"/>
         <v>BOY</v>
       </c>
       <c r="C43" t="str">
-        <f>MID(A43, FIND("_", A43) + 1, FIND("_", A43, FIND("_", A43) + 1) - FIND("_", A43) - 1)</f>
+        <f t="shared" si="1"/>
         <v>LPD</v>
       </c>
       <c r="D43" t="str">
-        <f>RIGHT(A43, LEN(A43) - FIND("_", A43, FIND("_", A43) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220927</v>
       </c>
       <c r="E43" t="s">
@@ -4249,15 +4249,15 @@
         <v>70</v>
       </c>
       <c r="B44" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A44,"_")</f>
+        <f t="shared" si="0"/>
         <v>BOY</v>
       </c>
       <c r="C44" s="1" t="str">
-        <f>MID(A44, FIND("_", A44) + 1, FIND("_", A44, FIND("_", A44) + 1) - FIND("_", A44) - 1)</f>
+        <f t="shared" si="1"/>
         <v>LPD</v>
       </c>
       <c r="D44" s="1" t="str">
-        <f>RIGHT(A44, LEN(A44) - FIND("_", A44, FIND("_", A44) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20221011</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -4300,15 +4300,15 @@
         <v>71</v>
       </c>
       <c r="B45" t="str">
-        <f>_xlfn.TEXTBEFORE(A45,"_")</f>
+        <f t="shared" si="0"/>
         <v>BOY</v>
       </c>
       <c r="C45" t="str">
-        <f>MID(A45, FIND("_", A45) + 1, FIND("_", A45, FIND("_", A45) + 1) - FIND("_", A45) - 1)</f>
+        <f t="shared" si="1"/>
         <v>LPD</v>
       </c>
       <c r="D45" t="str">
-        <f>RIGHT(A45, LEN(A45) - FIND("_", A45, FIND("_", A45) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20221019</v>
       </c>
       <c r="E45" t="s">
@@ -4350,15 +4350,15 @@
         <v>56</v>
       </c>
       <c r="B46" s="8" t="str">
-        <f>_xlfn.TEXTBEFORE(A46,"_")</f>
+        <f t="shared" si="0"/>
         <v>BOY</v>
       </c>
       <c r="C46" s="8" t="str">
-        <f>MID(A46, FIND("_", A46) + 1, FIND("_", A46, FIND("_", A46) + 1) - FIND("_", A46) - 1)</f>
+        <f t="shared" si="1"/>
         <v>RPD</v>
       </c>
       <c r="D46" s="8" t="str">
-        <f>RIGHT(A46, LEN(A46) - FIND("_", A46, FIND("_", A46) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220510</v>
       </c>
       <c r="E46" s="8" t="s">
@@ -4400,15 +4400,15 @@
         <v>59</v>
       </c>
       <c r="B47" t="str">
-        <f>_xlfn.TEXTBEFORE(A47,"_")</f>
+        <f t="shared" si="0"/>
         <v>BOY</v>
       </c>
       <c r="C47" t="str">
-        <f>MID(A47, FIND("_", A47) + 1, FIND("_", A47, FIND("_", A47) + 1) - FIND("_", A47) - 1)</f>
+        <f t="shared" si="1"/>
         <v>RPD</v>
       </c>
       <c r="D47" t="str">
-        <f>RIGHT(A47, LEN(A47) - FIND("_", A47, FIND("_", A47) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220615</v>
       </c>
       <c r="E47" t="s">
@@ -4450,15 +4450,15 @@
         <v>62</v>
       </c>
       <c r="B48" t="str">
-        <f>_xlfn.TEXTBEFORE(A48,"_")</f>
+        <f t="shared" si="0"/>
         <v>BOY</v>
       </c>
       <c r="C48" t="str">
-        <f>MID(A48, FIND("_", A48) + 1, FIND("_", A48, FIND("_", A48) + 1) - FIND("_", A48) - 1)</f>
+        <f t="shared" si="1"/>
         <v>RPD</v>
       </c>
       <c r="D48" t="str">
-        <f>RIGHT(A48, LEN(A48) - FIND("_", A48, FIND("_", A48) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220712</v>
       </c>
       <c r="E48" t="s">
@@ -4500,15 +4500,15 @@
         <v>65</v>
       </c>
       <c r="B49" t="str">
-        <f>_xlfn.TEXTBEFORE(A49,"_")</f>
+        <f t="shared" si="0"/>
         <v>BOY</v>
       </c>
       <c r="C49" t="str">
-        <f>MID(A49, FIND("_", A49) + 1, FIND("_", A49, FIND("_", A49) + 1) - FIND("_", A49) - 1)</f>
+        <f t="shared" si="1"/>
         <v>RPD</v>
       </c>
       <c r="D49" t="str">
-        <f>RIGHT(A49, LEN(A49) - FIND("_", A49, FIND("_", A49) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220829</v>
       </c>
       <c r="E49" t="s">
@@ -4550,15 +4550,15 @@
         <v>68</v>
       </c>
       <c r="B50" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A50,"_")</f>
+        <f t="shared" si="0"/>
         <v>BOY</v>
       </c>
       <c r="C50" s="2" t="str">
-        <f>MID(A50, FIND("_", A50) + 1, FIND("_", A50, FIND("_", A50) + 1) - FIND("_", A50) - 1)</f>
+        <f t="shared" si="1"/>
         <v>RPD</v>
       </c>
       <c r="D50" s="2" t="str">
-        <f>RIGHT(A50, LEN(A50) - FIND("_", A50, FIND("_", A50) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220927</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -4601,15 +4601,15 @@
         <v>72</v>
       </c>
       <c r="B51" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A51,"_")</f>
+        <f t="shared" si="0"/>
         <v>BOY</v>
       </c>
       <c r="C51" s="1" t="str">
-        <f>MID(A51, FIND("_", A51) + 1, FIND("_", A51, FIND("_", A51) + 1) - FIND("_", A51) - 1)</f>
+        <f t="shared" si="1"/>
         <v>RPD</v>
       </c>
       <c r="D51" s="1" t="str">
-        <f>RIGHT(A51, LEN(A51) - FIND("_", A51, FIND("_", A51) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20221019</v>
       </c>
       <c r="E51" s="1" t="s">
@@ -4652,15 +4652,15 @@
         <v>57</v>
       </c>
       <c r="B52" s="8" t="str">
-        <f>_xlfn.TEXTBEFORE(A52,"_")</f>
+        <f t="shared" si="0"/>
         <v>BOY</v>
       </c>
       <c r="C52" s="8" t="str">
-        <f>MID(A52, FIND("_", A52) + 1, FIND("_", A52, FIND("_", A52) + 1) - FIND("_", A52) - 1)</f>
+        <f t="shared" si="1"/>
         <v>TPD</v>
       </c>
       <c r="D52" s="8" t="str">
-        <f>RIGHT(A52, LEN(A52) - FIND("_", A52, FIND("_", A52) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220510</v>
       </c>
       <c r="E52" s="8" t="s">
@@ -4702,15 +4702,15 @@
         <v>60</v>
       </c>
       <c r="B53" t="str">
-        <f>_xlfn.TEXTBEFORE(A53,"_")</f>
+        <f t="shared" si="0"/>
         <v>BOY</v>
       </c>
       <c r="C53" t="str">
-        <f>MID(A53, FIND("_", A53) + 1, FIND("_", A53, FIND("_", A53) + 1) - FIND("_", A53) - 1)</f>
+        <f t="shared" si="1"/>
         <v>TPD</v>
       </c>
       <c r="D53" t="str">
-        <f>RIGHT(A53, LEN(A53) - FIND("_", A53, FIND("_", A53) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220615</v>
       </c>
       <c r="E53" t="s">
@@ -4752,15 +4752,15 @@
         <v>63</v>
       </c>
       <c r="B54" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A54,"_")</f>
+        <f t="shared" si="0"/>
         <v>BOY</v>
       </c>
       <c r="C54" s="2" t="str">
-        <f>MID(A54, FIND("_", A54) + 1, FIND("_", A54, FIND("_", A54) + 1) - FIND("_", A54) - 1)</f>
+        <f t="shared" si="1"/>
         <v>TPD</v>
       </c>
       <c r="D54" s="2" t="str">
-        <f>RIGHT(A54, LEN(A54) - FIND("_", A54, FIND("_", A54) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220712</v>
       </c>
       <c r="E54" s="2" t="s">
@@ -4803,15 +4803,15 @@
         <v>66</v>
       </c>
       <c r="B55" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A55,"_")</f>
+        <f t="shared" si="0"/>
         <v>BOY</v>
       </c>
       <c r="C55" s="2" t="str">
-        <f>MID(A55, FIND("_", A55) + 1, FIND("_", A55, FIND("_", A55) + 1) - FIND("_", A55) - 1)</f>
+        <f t="shared" si="1"/>
         <v>TPD</v>
       </c>
       <c r="D55" s="2" t="str">
-        <f>RIGHT(A55, LEN(A55) - FIND("_", A55, FIND("_", A55) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220829</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -4854,15 +4854,15 @@
         <v>69</v>
       </c>
       <c r="B56" t="str">
-        <f>_xlfn.TEXTBEFORE(A56,"_")</f>
+        <f t="shared" si="0"/>
         <v>BOY</v>
       </c>
       <c r="C56" t="str">
-        <f>MID(A56, FIND("_", A56) + 1, FIND("_", A56, FIND("_", A56) + 1) - FIND("_", A56) - 1)</f>
+        <f t="shared" si="1"/>
         <v>TPD</v>
       </c>
       <c r="D56" t="str">
-        <f>RIGHT(A56, LEN(A56) - FIND("_", A56, FIND("_", A56) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20220927</v>
       </c>
       <c r="E56" t="s">
@@ -4904,15 +4904,15 @@
         <v>74</v>
       </c>
       <c r="B57" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A57,"_")</f>
+        <f t="shared" si="0"/>
         <v>BOY</v>
       </c>
       <c r="C57" s="1" t="str">
-        <f>MID(A57, FIND("_", A57) + 1, FIND("_", A57, FIND("_", A57) + 1) - FIND("_", A57) - 1)</f>
+        <f t="shared" si="1"/>
         <v>TPD</v>
       </c>
       <c r="D57" s="1" t="str">
-        <f>RIGHT(A57, LEN(A57) - FIND("_", A57, FIND("_", A57) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20221019</v>
       </c>
       <c r="E57" s="1" t="s">
@@ -4955,15 +4955,15 @@
         <v>75</v>
       </c>
       <c r="B58" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A58,"_")</f>
+        <f t="shared" si="0"/>
         <v>FON</v>
       </c>
       <c r="C58" s="4" t="str">
-        <f>MID(A58, FIND("_", A58) + 1, FIND("_", A58, FIND("_", A58) + 1) - FIND("_", A58) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P1</v>
       </c>
       <c r="D58" s="4" t="str">
-        <f>RIGHT(A58, LEN(A58) - FIND("_", A58, FIND("_", A58) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20210630</v>
       </c>
       <c r="E58" s="4" t="s">
@@ -5008,15 +5008,15 @@
         <v>256</v>
       </c>
       <c r="B59" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A59,"_")</f>
+        <f t="shared" si="0"/>
         <v>FON</v>
       </c>
       <c r="C59" s="1" t="str">
-        <f>MID(A59, FIND("_", A59) + 1, FIND("_", A59, FIND("_", A59) + 1) - FIND("_", A59) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P1</v>
       </c>
       <c r="D59" s="1" t="str">
-        <f>RIGHT(A59, LEN(A59) - FIND("_", A59, FIND("_", A59) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20210828</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -5059,15 +5059,15 @@
         <v>80</v>
       </c>
       <c r="B60" s="8" t="str">
-        <f>_xlfn.TEXTBEFORE(A60,"_")</f>
+        <f t="shared" si="0"/>
         <v>FON</v>
       </c>
       <c r="C60" s="8" t="str">
-        <f>MID(A60, FIND("_", A60) + 1, FIND("_", A60, FIND("_", A60) + 1) - FIND("_", A60) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P1</v>
       </c>
       <c r="D60" s="8" t="str">
-        <f>RIGHT(A60, LEN(A60) - FIND("_", A60, FIND("_", A60) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20211001</v>
       </c>
       <c r="E60" s="8" t="s">
@@ -5112,15 +5112,15 @@
         <v>77</v>
       </c>
       <c r="B61" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A61,"_")</f>
+        <f t="shared" si="0"/>
         <v>FON</v>
       </c>
       <c r="C61" s="4" t="str">
-        <f>MID(A61, FIND("_", A61) + 1, FIND("_", A61, FIND("_", A61) + 1) - FIND("_", A61) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P2</v>
       </c>
       <c r="D61" s="4" t="str">
-        <f>RIGHT(A61, LEN(A61) - FIND("_", A61, FIND("_", A61) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20210630</v>
       </c>
       <c r="E61" s="4" t="s">
@@ -5165,15 +5165,15 @@
         <v>257</v>
       </c>
       <c r="B62" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A62,"_")</f>
+        <f t="shared" si="0"/>
         <v>FON</v>
       </c>
       <c r="C62" s="1" t="str">
-        <f>MID(A62, FIND("_", A62) + 1, FIND("_", A62, FIND("_", A62) + 1) - FIND("_", A62) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P2</v>
       </c>
       <c r="D62" s="1" t="str">
-        <f>RIGHT(A62, LEN(A62) - FIND("_", A62, FIND("_", A62) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20210828</v>
       </c>
       <c r="E62" s="1" t="s">
@@ -5216,15 +5216,15 @@
         <v>81</v>
       </c>
       <c r="B63" s="8" t="str">
-        <f>_xlfn.TEXTBEFORE(A63,"_")</f>
+        <f t="shared" si="0"/>
         <v>FON</v>
       </c>
       <c r="C63" s="8" t="str">
-        <f>MID(A63, FIND("_", A63) + 1, FIND("_", A63, FIND("_", A63) + 1) - FIND("_", A63) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P2</v>
       </c>
       <c r="D63" s="8" t="str">
-        <f>RIGHT(A63, LEN(A63) - FIND("_", A63, FIND("_", A63) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20211001</v>
       </c>
       <c r="E63" s="8" t="s">
@@ -5269,15 +5269,15 @@
         <v>79</v>
       </c>
       <c r="B64" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A64,"_")</f>
+        <f t="shared" si="0"/>
         <v>FON</v>
       </c>
       <c r="C64" s="4" t="str">
-        <f>MID(A64, FIND("_", A64) + 1, FIND("_", A64, FIND("_", A64) + 1) - FIND("_", A64) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P3</v>
       </c>
       <c r="D64" s="4" t="str">
-        <f>RIGHT(A64, LEN(A64) - FIND("_", A64, FIND("_", A64) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20210630</v>
       </c>
       <c r="E64" s="4" t="s">
@@ -5322,15 +5322,15 @@
         <v>258</v>
       </c>
       <c r="B65" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A65,"_")</f>
+        <f t="shared" si="0"/>
         <v>FON</v>
       </c>
       <c r="C65" s="1" t="str">
-        <f>MID(A65, FIND("_", A65) + 1, FIND("_", A65, FIND("_", A65) + 1) - FIND("_", A65) - 1)</f>
+        <f t="shared" si="1"/>
         <v>P3</v>
       </c>
       <c r="D65" s="1" t="str">
-        <f>RIGHT(A65, LEN(A65) - FIND("_", A65, FIND("_", A65) + 1))</f>
+        <f t="shared" si="2"/>
         <v>20210828</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -5373,15 +5373,15 @@
         <v>82</v>
       </c>
       <c r="B66" s="8" t="str">
-        <f>_xlfn.TEXTBEFORE(A66,"_")</f>
+        <f t="shared" ref="B66:B129" si="3">_xlfn.TEXTBEFORE(A66,"_")</f>
         <v>FON</v>
       </c>
       <c r="C66" s="8" t="str">
-        <f>MID(A66, FIND("_", A66) + 1, FIND("_", A66, FIND("_", A66) + 1) - FIND("_", A66) - 1)</f>
+        <f t="shared" ref="C66:C129" si="4">MID(A66, FIND("_", A66) + 1, FIND("_", A66, FIND("_", A66) + 1) - FIND("_", A66) - 1)</f>
         <v>P3</v>
       </c>
       <c r="D66" s="8" t="str">
-        <f>RIGHT(A66, LEN(A66) - FIND("_", A66, FIND("_", A66) + 1))</f>
+        <f t="shared" ref="D66:D129" si="5">RIGHT(A66, LEN(A66) - FIND("_", A66, FIND("_", A66) + 1))</f>
         <v>20211001</v>
       </c>
       <c r="E66" s="8" t="s">
@@ -5426,15 +5426,15 @@
         <v>84</v>
       </c>
       <c r="B67" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A67,"_")</f>
+        <f t="shared" si="3"/>
         <v>GLN</v>
       </c>
       <c r="C67" s="2" t="str">
-        <f>MID(A67, FIND("_", A67) + 1, FIND("_", A67, FIND("_", A67) + 1) - FIND("_", A67) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P1</v>
       </c>
       <c r="D67" s="2" t="str">
-        <f>RIGHT(A67, LEN(A67) - FIND("_", A67, FIND("_", A67) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20210609</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -5477,15 +5477,15 @@
         <v>89</v>
       </c>
       <c r="B68" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A68,"_")</f>
+        <f t="shared" si="3"/>
         <v>GLN</v>
       </c>
       <c r="C68" s="4" t="str">
-        <f>MID(A68, FIND("_", A68) + 1, FIND("_", A68, FIND("_", A68) + 1) - FIND("_", A68) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P1</v>
       </c>
       <c r="D68" s="4" t="str">
-        <f>RIGHT(A68, LEN(A68) - FIND("_", A68, FIND("_", A68) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20210712</v>
       </c>
       <c r="E68" s="4" t="s">
@@ -5530,15 +5530,15 @@
         <v>93</v>
       </c>
       <c r="B69" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A69,"_")</f>
+        <f t="shared" si="3"/>
         <v>GLN</v>
       </c>
       <c r="C69" s="1" t="str">
-        <f>MID(A69, FIND("_", A69) + 1, FIND("_", A69, FIND("_", A69) + 1) - FIND("_", A69) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P1</v>
       </c>
       <c r="D69" s="1" t="str">
-        <f>RIGHT(A69, LEN(A69) - FIND("_", A69, FIND("_", A69) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20210809</v>
       </c>
       <c r="E69" s="1" t="s">
@@ -5581,15 +5581,15 @@
         <v>85</v>
       </c>
       <c r="B70" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A70,"_")</f>
+        <f t="shared" si="3"/>
         <v>GLN</v>
       </c>
       <c r="C70" s="2" t="str">
-        <f>MID(A70, FIND("_", A70) + 1, FIND("_", A70, FIND("_", A70) + 1) - FIND("_", A70) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P2</v>
       </c>
       <c r="D70" s="2" t="str">
-        <f>RIGHT(A70, LEN(A70) - FIND("_", A70, FIND("_", A70) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20210609</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -5632,15 +5632,15 @@
         <v>85</v>
       </c>
       <c r="B71" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A71,"_")</f>
+        <f t="shared" si="3"/>
         <v>GLN</v>
       </c>
       <c r="C71" s="2" t="str">
-        <f>MID(A71, FIND("_", A71) + 1, FIND("_", A71, FIND("_", A71) + 1) - FIND("_", A71) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P2</v>
       </c>
       <c r="D71" s="2" t="str">
-        <f>RIGHT(A71, LEN(A71) - FIND("_", A71, FIND("_", A71) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20210609</v>
       </c>
       <c r="E71" s="2" t="s">
@@ -5683,15 +5683,15 @@
         <v>90</v>
       </c>
       <c r="B72" t="str">
-        <f>_xlfn.TEXTBEFORE(A72,"_")</f>
+        <f t="shared" si="3"/>
         <v>GLN</v>
       </c>
       <c r="C72" t="str">
-        <f>MID(A72, FIND("_", A72) + 1, FIND("_", A72, FIND("_", A72) + 1) - FIND("_", A72) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P2</v>
       </c>
       <c r="D72" t="str">
-        <f>RIGHT(A72, LEN(A72) - FIND("_", A72, FIND("_", A72) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20210712</v>
       </c>
       <c r="E72" t="s">
@@ -5733,15 +5733,15 @@
         <v>94</v>
       </c>
       <c r="B73" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A73,"_")</f>
+        <f t="shared" si="3"/>
         <v>GLN</v>
       </c>
       <c r="C73" s="1" t="str">
-        <f>MID(A73, FIND("_", A73) + 1, FIND("_", A73, FIND("_", A73) + 1) - FIND("_", A73) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P2</v>
       </c>
       <c r="D73" s="1" t="str">
-        <f>RIGHT(A73, LEN(A73) - FIND("_", A73, FIND("_", A73) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20210809</v>
       </c>
       <c r="E73" s="1" t="s">
@@ -5784,15 +5784,15 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A74,"_")</f>
+        <f t="shared" si="3"/>
         <v>GLN</v>
       </c>
       <c r="C74" s="2" t="str">
-        <f>MID(A74, FIND("_", A74) + 1, FIND("_", A74, FIND("_", A74) + 1) - FIND("_", A74) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P3</v>
       </c>
       <c r="D74" s="2" t="str">
-        <f>RIGHT(A74, LEN(A74) - FIND("_", A74, FIND("_", A74) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20210609</v>
       </c>
       <c r="E74" s="2" t="s">
@@ -5835,15 +5835,15 @@
         <v>91</v>
       </c>
       <c r="B75" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A75,"_")</f>
+        <f t="shared" si="3"/>
         <v>GLN</v>
       </c>
       <c r="C75" s="4" t="str">
-        <f>MID(A75, FIND("_", A75) + 1, FIND("_", A75, FIND("_", A75) + 1) - FIND("_", A75) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P3</v>
       </c>
       <c r="D75" s="4" t="str">
-        <f>RIGHT(A75, LEN(A75) - FIND("_", A75, FIND("_", A75) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20210712</v>
       </c>
       <c r="E75" s="4" t="s">
@@ -5888,15 +5888,15 @@
         <v>96</v>
       </c>
       <c r="B76" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A76,"_")</f>
+        <f t="shared" si="3"/>
         <v>GLN</v>
       </c>
       <c r="C76" s="1" t="str">
-        <f>MID(A76, FIND("_", A76) + 1, FIND("_", A76, FIND("_", A76) + 1) - FIND("_", A76) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P3</v>
       </c>
       <c r="D76" s="1" t="str">
-        <f>RIGHT(A76, LEN(A76) - FIND("_", A76, FIND("_", A76) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20210809</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -5939,15 +5939,15 @@
         <v>97</v>
       </c>
       <c r="B77" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A77,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRN</v>
       </c>
       <c r="C77" s="1" t="str">
-        <f>MID(A77, FIND("_", A77) + 1, FIND("_", A77, FIND("_", A77) + 1) - FIND("_", A77) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P1</v>
       </c>
       <c r="D77" s="1" t="str">
-        <f>RIGHT(A77, LEN(A77) - FIND("_", A77, FIND("_", A77) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220601</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -5990,15 +5990,15 @@
         <v>100</v>
       </c>
       <c r="B78" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A78,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRN</v>
       </c>
       <c r="C78" s="1" t="str">
-        <f>MID(A78, FIND("_", A78) + 1, FIND("_", A78, FIND("_", A78) + 1) - FIND("_", A78) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P1</v>
       </c>
       <c r="D78" s="1" t="str">
-        <f>RIGHT(A78, LEN(A78) - FIND("_", A78, FIND("_", A78) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220701</v>
       </c>
       <c r="E78" s="1" t="s">
@@ -6041,15 +6041,15 @@
         <v>103</v>
       </c>
       <c r="B79" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A79,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRN</v>
       </c>
       <c r="C79" s="2" t="str">
-        <f>MID(A79, FIND("_", A79) + 1, FIND("_", A79, FIND("_", A79) + 1) - FIND("_", A79) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P1</v>
       </c>
       <c r="D79" s="2" t="str">
-        <f>RIGHT(A79, LEN(A79) - FIND("_", A79, FIND("_", A79) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220725</v>
       </c>
       <c r="E79" s="2" t="s">
@@ -6092,15 +6092,15 @@
         <v>107</v>
       </c>
       <c r="B80" t="str">
-        <f>_xlfn.TEXTBEFORE(A80,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRN</v>
       </c>
       <c r="C80" t="str">
-        <f>MID(A80, FIND("_", A80) + 1, FIND("_", A80, FIND("_", A80) + 1) - FIND("_", A80) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P1</v>
       </c>
       <c r="D80" t="str">
-        <f>RIGHT(A80, LEN(A80) - FIND("_", A80, FIND("_", A80) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220815</v>
       </c>
       <c r="E80" t="s">
@@ -6142,15 +6142,15 @@
         <v>110</v>
       </c>
       <c r="B81" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A81,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRN</v>
       </c>
       <c r="C81" s="1" t="str">
-        <f>MID(A81, FIND("_", A81) + 1, FIND("_", A81, FIND("_", A81) + 1) - FIND("_", A81) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P1</v>
       </c>
       <c r="D81" s="1" t="str">
-        <f>RIGHT(A81, LEN(A81) - FIND("_", A81, FIND("_", A81) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220831</v>
       </c>
       <c r="E81" s="1" t="s">
@@ -6193,15 +6193,15 @@
         <v>113</v>
       </c>
       <c r="B82" t="str">
-        <f>_xlfn.TEXTBEFORE(A82,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRN</v>
       </c>
       <c r="C82" t="str">
-        <f>MID(A82, FIND("_", A82) + 1, FIND("_", A82, FIND("_", A82) + 1) - FIND("_", A82) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P1</v>
       </c>
       <c r="D82" t="str">
-        <f>RIGHT(A82, LEN(A82) - FIND("_", A82, FIND("_", A82) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220920</v>
       </c>
       <c r="E82" t="s">
@@ -6243,15 +6243,15 @@
         <v>117</v>
       </c>
       <c r="B83" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A83,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRN</v>
       </c>
       <c r="C83" s="2" t="str">
-        <f>MID(A83, FIND("_", A83) + 1, FIND("_", A83, FIND("_", A83) + 1) - FIND("_", A83) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P1</v>
       </c>
       <c r="D83" s="2" t="str">
-        <f>RIGHT(A83, LEN(A83) - FIND("_", A83, FIND("_", A83) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20221019</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -6294,15 +6294,15 @@
         <v>98</v>
       </c>
       <c r="B84" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A84,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRN</v>
       </c>
       <c r="C84" s="1" t="str">
-        <f>MID(A84, FIND("_", A84) + 1, FIND("_", A84, FIND("_", A84) + 1) - FIND("_", A84) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P2</v>
       </c>
       <c r="D84" s="1" t="str">
-        <f>RIGHT(A84, LEN(A84) - FIND("_", A84, FIND("_", A84) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220601</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -6345,15 +6345,15 @@
         <v>101</v>
       </c>
       <c r="B85" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A85,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRN</v>
       </c>
       <c r="C85" s="1" t="str">
-        <f>MID(A85, FIND("_", A85) + 1, FIND("_", A85, FIND("_", A85) + 1) - FIND("_", A85) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P2</v>
       </c>
       <c r="D85" s="1" t="str">
-        <f>RIGHT(A85, LEN(A85) - FIND("_", A85, FIND("_", A85) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220701</v>
       </c>
       <c r="E85" s="1" t="s">
@@ -6396,15 +6396,15 @@
         <v>105</v>
       </c>
       <c r="B86" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A86,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRN</v>
       </c>
       <c r="C86" s="2" t="str">
-        <f>MID(A86, FIND("_", A86) + 1, FIND("_", A86, FIND("_", A86) + 1) - FIND("_", A86) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P2</v>
       </c>
       <c r="D86" s="2" t="str">
-        <f>RIGHT(A86, LEN(A86) - FIND("_", A86, FIND("_", A86) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220725</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -6447,15 +6447,15 @@
         <v>108</v>
       </c>
       <c r="B87" t="str">
-        <f>_xlfn.TEXTBEFORE(A87,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRN</v>
       </c>
       <c r="C87" t="str">
-        <f>MID(A87, FIND("_", A87) + 1, FIND("_", A87, FIND("_", A87) + 1) - FIND("_", A87) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P2</v>
       </c>
       <c r="D87" t="str">
-        <f>RIGHT(A87, LEN(A87) - FIND("_", A87, FIND("_", A87) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220815</v>
       </c>
       <c r="E87" t="s">
@@ -6497,15 +6497,15 @@
         <v>111</v>
       </c>
       <c r="B88" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A88,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRN</v>
       </c>
       <c r="C88" s="1" t="str">
-        <f>MID(A88, FIND("_", A88) + 1, FIND("_", A88, FIND("_", A88) + 1) - FIND("_", A88) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P2</v>
       </c>
       <c r="D88" s="1" t="str">
-        <f>RIGHT(A88, LEN(A88) - FIND("_", A88, FIND("_", A88) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220831</v>
       </c>
       <c r="E88" s="1" t="s">
@@ -6548,15 +6548,15 @@
         <v>115</v>
       </c>
       <c r="B89" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A89,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRN</v>
       </c>
       <c r="C89" s="2" t="str">
-        <f>MID(A89, FIND("_", A89) + 1, FIND("_", A89, FIND("_", A89) + 1) - FIND("_", A89) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P2</v>
       </c>
       <c r="D89" s="2" t="str">
-        <f>RIGHT(A89, LEN(A89) - FIND("_", A89, FIND("_", A89) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220920</v>
       </c>
       <c r="E89" s="2" t="s">
@@ -6599,15 +6599,15 @@
         <v>119</v>
       </c>
       <c r="B90" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A90,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRN</v>
       </c>
       <c r="C90" s="2" t="str">
-        <f>MID(A90, FIND("_", A90) + 1, FIND("_", A90, FIND("_", A90) + 1) - FIND("_", A90) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P2</v>
       </c>
       <c r="D90" s="2" t="str">
-        <f>RIGHT(A90, LEN(A90) - FIND("_", A90, FIND("_", A90) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20221019</v>
       </c>
       <c r="E90" s="2" t="s">
@@ -6650,15 +6650,15 @@
         <v>99</v>
       </c>
       <c r="B91" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A91,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRN</v>
       </c>
       <c r="C91" s="1" t="str">
-        <f>MID(A91, FIND("_", A91) + 1, FIND("_", A91, FIND("_", A91) + 1) - FIND("_", A91) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P3</v>
       </c>
       <c r="D91" s="1" t="str">
-        <f>RIGHT(A91, LEN(A91) - FIND("_", A91, FIND("_", A91) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220601</v>
       </c>
       <c r="E91" s="1" t="s">
@@ -6701,15 +6701,15 @@
         <v>102</v>
       </c>
       <c r="B92" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A92,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRN</v>
       </c>
       <c r="C92" s="1" t="str">
-        <f>MID(A92, FIND("_", A92) + 1, FIND("_", A92, FIND("_", A92) + 1) - FIND("_", A92) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P3</v>
       </c>
       <c r="D92" s="1" t="str">
-        <f>RIGHT(A92, LEN(A92) - FIND("_", A92, FIND("_", A92) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220701</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -6752,15 +6752,15 @@
         <v>106</v>
       </c>
       <c r="B93" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A93,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRN</v>
       </c>
       <c r="C93" s="2" t="str">
-        <f>MID(A93, FIND("_", A93) + 1, FIND("_", A93, FIND("_", A93) + 1) - FIND("_", A93) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P3</v>
       </c>
       <c r="D93" s="2" t="str">
-        <f>RIGHT(A93, LEN(A93) - FIND("_", A93, FIND("_", A93) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220725</v>
       </c>
       <c r="E93" s="2" t="s">
@@ -6803,15 +6803,15 @@
         <v>109</v>
       </c>
       <c r="B94" t="str">
-        <f>_xlfn.TEXTBEFORE(A94,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRN</v>
       </c>
       <c r="C94" t="str">
-        <f>MID(A94, FIND("_", A94) + 1, FIND("_", A94, FIND("_", A94) + 1) - FIND("_", A94) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P3</v>
       </c>
       <c r="D94" t="str">
-        <f>RIGHT(A94, LEN(A94) - FIND("_", A94, FIND("_", A94) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220815</v>
       </c>
       <c r="E94" t="s">
@@ -6853,15 +6853,15 @@
         <v>112</v>
       </c>
       <c r="B95" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A95,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRN</v>
       </c>
       <c r="C95" s="1" t="str">
-        <f>MID(A95, FIND("_", A95) + 1, FIND("_", A95, FIND("_", A95) + 1) - FIND("_", A95) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P3</v>
       </c>
       <c r="D95" s="1" t="str">
-        <f>RIGHT(A95, LEN(A95) - FIND("_", A95, FIND("_", A95) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220831</v>
       </c>
       <c r="E95" s="1" t="s">
@@ -6904,15 +6904,15 @@
         <v>116</v>
       </c>
       <c r="B96" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A96,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRN</v>
       </c>
       <c r="C96" s="2" t="str">
-        <f>MID(A96, FIND("_", A96) + 1, FIND("_", A96, FIND("_", A96) + 1) - FIND("_", A96) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P3</v>
       </c>
       <c r="D96" s="2" t="str">
-        <f>RIGHT(A96, LEN(A96) - FIND("_", A96, FIND("_", A96) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220920</v>
       </c>
       <c r="E96" s="2" t="s">
@@ -6955,15 +6955,15 @@
         <v>120</v>
       </c>
       <c r="B97" t="str">
-        <f>_xlfn.TEXTBEFORE(A97,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRN</v>
       </c>
       <c r="C97" t="str">
-        <f>MID(A97, FIND("_", A97) + 1, FIND("_", A97, FIND("_", A97) + 1) - FIND("_", A97) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P3</v>
       </c>
       <c r="D97" t="str">
-        <f>RIGHT(A97, LEN(A97) - FIND("_", A97, FIND("_", A97) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20221019</v>
       </c>
       <c r="E97" t="s">
@@ -7005,15 +7005,15 @@
         <v>121</v>
       </c>
       <c r="B98" t="str">
-        <f>_xlfn.TEXTBEFORE(A98,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C98" t="str">
-        <f>MID(A98, FIND("_", A98) + 1, FIND("_", A98, FIND("_", A98) + 1) - FIND("_", A98) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P1</v>
       </c>
       <c r="D98" t="str">
-        <f>RIGHT(A98, LEN(A98) - FIND("_", A98, FIND("_", A98) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20210604</v>
       </c>
       <c r="E98" t="s">
@@ -7055,15 +7055,15 @@
         <v>124</v>
       </c>
       <c r="B99" t="str">
-        <f>_xlfn.TEXTBEFORE(A99,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C99" t="str">
-        <f>MID(A99, FIND("_", A99) + 1, FIND("_", A99, FIND("_", A99) + 1) - FIND("_", A99) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P1</v>
       </c>
       <c r="D99" t="str">
-        <f>RIGHT(A99, LEN(A99) - FIND("_", A99, FIND("_", A99) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20210714</v>
       </c>
       <c r="E99" t="s">
@@ -7105,15 +7105,15 @@
         <v>127</v>
       </c>
       <c r="B100" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A100,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C100" s="4" t="str">
-        <f>MID(A100, FIND("_", A100) + 1, FIND("_", A100, FIND("_", A100) + 1) - FIND("_", A100) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P1</v>
       </c>
       <c r="D100" s="4" t="str">
-        <f>RIGHT(A100, LEN(A100) - FIND("_", A100, FIND("_", A100) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20210902</v>
       </c>
       <c r="E100" s="4" t="s">
@@ -7158,15 +7158,15 @@
         <v>264</v>
       </c>
       <c r="B101" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A101,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C101" s="1" t="str">
-        <f>MID(A101, FIND("_", A101) + 1, FIND("_", A101, FIND("_", A101) + 1) - FIND("_", A101) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P1</v>
       </c>
       <c r="D101" s="1" t="str">
-        <f>RIGHT(A101, LEN(A101) - FIND("_", A101, FIND("_", A101) + 1))</f>
+        <f t="shared" si="5"/>
         <v xml:space="preserve">20210902	</v>
       </c>
       <c r="E101" s="1" t="s">
@@ -7209,15 +7209,15 @@
         <v>130</v>
       </c>
       <c r="B102" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A102,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C102" s="2" t="str">
-        <f>MID(A102, FIND("_", A102) + 1, FIND("_", A102, FIND("_", A102) + 1) - FIND("_", A102) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P1</v>
       </c>
       <c r="D102" s="2" t="str">
-        <f>RIGHT(A102, LEN(A102) - FIND("_", A102, FIND("_", A102) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220623</v>
       </c>
       <c r="E102" s="2" t="s">
@@ -7260,15 +7260,15 @@
         <v>133</v>
       </c>
       <c r="B103" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A103,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C103" s="2" t="str">
-        <f>MID(A103, FIND("_", A103) + 1, FIND("_", A103, FIND("_", A103) + 1) - FIND("_", A103) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P1</v>
       </c>
       <c r="D103" s="2" t="str">
-        <f>RIGHT(A103, LEN(A103) - FIND("_", A103, FIND("_", A103) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220726</v>
       </c>
       <c r="E103" s="2" t="s">
@@ -7311,15 +7311,15 @@
         <v>136</v>
       </c>
       <c r="B104" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A104,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C104" s="2" t="str">
-        <f>MID(A104, FIND("_", A104) + 1, FIND("_", A104, FIND("_", A104) + 1) - FIND("_", A104) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P1</v>
       </c>
       <c r="D104" s="2" t="str">
-        <f>RIGHT(A104, LEN(A104) - FIND("_", A104, FIND("_", A104) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220817</v>
       </c>
       <c r="E104" s="2" t="s">
@@ -7362,15 +7362,15 @@
         <v>139</v>
       </c>
       <c r="B105" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A105,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C105" s="1" t="str">
-        <f>MID(A105, FIND("_", A105) + 1, FIND("_", A105, FIND("_", A105) + 1) - FIND("_", A105) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P1</v>
       </c>
       <c r="D105" s="1" t="str">
-        <f>RIGHT(A105, LEN(A105) - FIND("_", A105, FIND("_", A105) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220907</v>
       </c>
       <c r="E105" s="1" t="s">
@@ -7413,15 +7413,15 @@
         <v>142</v>
       </c>
       <c r="B106" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A106,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C106" s="2" t="str">
-        <f>MID(A106, FIND("_", A106) + 1, FIND("_", A106, FIND("_", A106) + 1) - FIND("_", A106) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P1</v>
       </c>
       <c r="D106" s="2" t="str">
-        <f>RIGHT(A106, LEN(A106) - FIND("_", A106, FIND("_", A106) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220930</v>
       </c>
       <c r="E106" s="2" t="s">
@@ -7464,15 +7464,15 @@
         <v>145</v>
       </c>
       <c r="B107" s="7" t="str">
-        <f>_xlfn.TEXTBEFORE(A107,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C107" s="7" t="str">
-        <f>MID(A107, FIND("_", A107) + 1, FIND("_", A107, FIND("_", A107) + 1) - FIND("_", A107) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P1</v>
       </c>
       <c r="D107" s="7" t="str">
-        <f>RIGHT(A107, LEN(A107) - FIND("_", A107, FIND("_", A107) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20221020</v>
       </c>
       <c r="E107" s="7" t="s">
@@ -7515,15 +7515,15 @@
         <v>145</v>
       </c>
       <c r="B108" s="7" t="str">
-        <f>_xlfn.TEXTBEFORE(A108,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C108" s="7" t="str">
-        <f>MID(A108, FIND("_", A108) + 1, FIND("_", A108, FIND("_", A108) + 1) - FIND("_", A108) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P1</v>
       </c>
       <c r="D108" s="7" t="str">
-        <f>RIGHT(A108, LEN(A108) - FIND("_", A108, FIND("_", A108) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20221020</v>
       </c>
       <c r="E108" s="7" t="s">
@@ -7566,15 +7566,15 @@
         <v>265</v>
       </c>
       <c r="B109" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A109,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C109" s="1" t="str">
-        <f>MID(A109, FIND("_", A109) + 1, FIND("_", A109, FIND("_", A109) + 1) - FIND("_", A109) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P1</v>
       </c>
       <c r="D109" s="1" t="str">
-        <f>RIGHT(A109, LEN(A109) - FIND("_", A109, FIND("_", A109) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20221021</v>
       </c>
       <c r="E109" s="1" t="s">
@@ -7617,15 +7617,15 @@
         <v>122</v>
       </c>
       <c r="B110" t="str">
-        <f>_xlfn.TEXTBEFORE(A110,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C110" t="str">
-        <f>MID(A110, FIND("_", A110) + 1, FIND("_", A110, FIND("_", A110) + 1) - FIND("_", A110) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P2</v>
       </c>
       <c r="D110" t="str">
-        <f>RIGHT(A110, LEN(A110) - FIND("_", A110, FIND("_", A110) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20210604</v>
       </c>
       <c r="E110" t="s">
@@ -7667,15 +7667,15 @@
         <v>125</v>
       </c>
       <c r="B111" t="str">
-        <f>_xlfn.TEXTBEFORE(A111,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C111" t="str">
-        <f>MID(A111, FIND("_", A111) + 1, FIND("_", A111, FIND("_", A111) + 1) - FIND("_", A111) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P2</v>
       </c>
       <c r="D111" t="str">
-        <f>RIGHT(A111, LEN(A111) - FIND("_", A111, FIND("_", A111) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20210714</v>
       </c>
       <c r="E111" t="s">
@@ -7717,15 +7717,15 @@
         <v>128</v>
       </c>
       <c r="B112" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A112,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C112" s="4" t="str">
-        <f>MID(A112, FIND("_", A112) + 1, FIND("_", A112, FIND("_", A112) + 1) - FIND("_", A112) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P2</v>
       </c>
       <c r="D112" s="4" t="str">
-        <f>RIGHT(A112, LEN(A112) - FIND("_", A112, FIND("_", A112) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20210902</v>
       </c>
       <c r="E112" s="4" t="s">
@@ -7770,15 +7770,15 @@
         <v>131</v>
       </c>
       <c r="B113" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A113,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C113" s="2" t="str">
-        <f>MID(A113, FIND("_", A113) + 1, FIND("_", A113, FIND("_", A113) + 1) - FIND("_", A113) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P2</v>
       </c>
       <c r="D113" s="2" t="str">
-        <f>RIGHT(A113, LEN(A113) - FIND("_", A113, FIND("_", A113) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220623</v>
       </c>
       <c r="E113" s="2" t="s">
@@ -7821,15 +7821,15 @@
         <v>134</v>
       </c>
       <c r="B114" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A114,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C114" s="2" t="str">
-        <f>MID(A114, FIND("_", A114) + 1, FIND("_", A114, FIND("_", A114) + 1) - FIND("_", A114) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P2</v>
       </c>
       <c r="D114" s="2" t="str">
-        <f>RIGHT(A114, LEN(A114) - FIND("_", A114, FIND("_", A114) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220726</v>
       </c>
       <c r="E114" s="2" t="s">
@@ -7872,15 +7872,15 @@
         <v>137</v>
       </c>
       <c r="B115" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A115,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C115" s="2" t="str">
-        <f>MID(A115, FIND("_", A115) + 1, FIND("_", A115, FIND("_", A115) + 1) - FIND("_", A115) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P2</v>
       </c>
       <c r="D115" s="2" t="str">
-        <f>RIGHT(A115, LEN(A115) - FIND("_", A115, FIND("_", A115) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220817</v>
       </c>
       <c r="E115" s="2" t="s">
@@ -7923,15 +7923,15 @@
         <v>140</v>
       </c>
       <c r="B116" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A116,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C116" s="1" t="str">
-        <f>MID(A116, FIND("_", A116) + 1, FIND("_", A116, FIND("_", A116) + 1) - FIND("_", A116) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P2</v>
       </c>
       <c r="D116" s="1" t="str">
-        <f>RIGHT(A116, LEN(A116) - FIND("_", A116, FIND("_", A116) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220907</v>
       </c>
       <c r="E116" s="1" t="s">
@@ -7974,15 +7974,15 @@
         <v>143</v>
       </c>
       <c r="B117" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A117,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C117" s="2" t="str">
-        <f>MID(A117, FIND("_", A117) + 1, FIND("_", A117, FIND("_", A117) + 1) - FIND("_", A117) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P2</v>
       </c>
       <c r="D117" s="2" t="str">
-        <f>RIGHT(A117, LEN(A117) - FIND("_", A117, FIND("_", A117) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220930</v>
       </c>
       <c r="E117" s="2" t="s">
@@ -8025,15 +8025,15 @@
         <v>262</v>
       </c>
       <c r="B118" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A118,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C118" s="2" t="str">
-        <f>MID(A118, FIND("_", A118) + 1, FIND("_", A118, FIND("_", A118) + 1) - FIND("_", A118) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P2</v>
       </c>
       <c r="D118" s="2" t="str">
-        <f>RIGHT(A118, LEN(A118) - FIND("_", A118, FIND("_", A118) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20221020</v>
       </c>
       <c r="E118" s="2" t="s">
@@ -8076,15 +8076,15 @@
         <v>123</v>
       </c>
       <c r="B119" t="str">
-        <f>_xlfn.TEXTBEFORE(A119,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C119" t="str">
-        <f>MID(A119, FIND("_", A119) + 1, FIND("_", A119, FIND("_", A119) + 1) - FIND("_", A119) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P3</v>
       </c>
       <c r="D119" t="str">
-        <f>RIGHT(A119, LEN(A119) - FIND("_", A119, FIND("_", A119) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20210604</v>
       </c>
       <c r="E119" t="s">
@@ -8126,15 +8126,15 @@
         <v>126</v>
       </c>
       <c r="B120" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A120,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C120" s="2" t="str">
-        <f>MID(A120, FIND("_", A120) + 1, FIND("_", A120, FIND("_", A120) + 1) - FIND("_", A120) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P3</v>
       </c>
       <c r="D120" s="2" t="str">
-        <f>RIGHT(A120, LEN(A120) - FIND("_", A120, FIND("_", A120) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20210714</v>
       </c>
       <c r="E120" s="2" t="s">
@@ -8177,15 +8177,15 @@
         <v>129</v>
       </c>
       <c r="B121" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A121,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C121" s="4" t="str">
-        <f>MID(A121, FIND("_", A121) + 1, FIND("_", A121, FIND("_", A121) + 1) - FIND("_", A121) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P3</v>
       </c>
       <c r="D121" s="4" t="str">
-        <f>RIGHT(A121, LEN(A121) - FIND("_", A121, FIND("_", A121) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20210902</v>
       </c>
       <c r="E121" s="4" t="s">
@@ -8230,15 +8230,15 @@
         <v>132</v>
       </c>
       <c r="B122" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A122,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C122" s="2" t="str">
-        <f>MID(A122, FIND("_", A122) + 1, FIND("_", A122, FIND("_", A122) + 1) - FIND("_", A122) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P3</v>
       </c>
       <c r="D122" s="2" t="str">
-        <f>RIGHT(A122, LEN(A122) - FIND("_", A122, FIND("_", A122) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220623</v>
       </c>
       <c r="E122" s="2" t="s">
@@ -8281,15 +8281,15 @@
         <v>135</v>
       </c>
       <c r="B123" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A123,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C123" s="2" t="str">
-        <f>MID(A123, FIND("_", A123) + 1, FIND("_", A123, FIND("_", A123) + 1) - FIND("_", A123) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P3</v>
       </c>
       <c r="D123" s="2" t="str">
-        <f>RIGHT(A123, LEN(A123) - FIND("_", A123, FIND("_", A123) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220726</v>
       </c>
       <c r="E123" s="2" t="s">
@@ -8332,15 +8332,15 @@
         <v>266</v>
       </c>
       <c r="B124" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A124,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C124" s="1" t="str">
-        <f>MID(A124, FIND("_", A124) + 1, FIND("_", A124, FIND("_", A124) + 1) - FIND("_", A124) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P3</v>
       </c>
       <c r="D124" s="1" t="str">
-        <f>RIGHT(A124, LEN(A124) - FIND("_", A124, FIND("_", A124) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220812</v>
       </c>
       <c r="E124" s="1" t="s">
@@ -8383,15 +8383,15 @@
         <v>138</v>
       </c>
       <c r="B125" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A125,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C125" s="2" t="str">
-        <f>MID(A125, FIND("_", A125) + 1, FIND("_", A125, FIND("_", A125) + 1) - FIND("_", A125) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P3</v>
       </c>
       <c r="D125" s="2" t="str">
-        <f>RIGHT(A125, LEN(A125) - FIND("_", A125, FIND("_", A125) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220817</v>
       </c>
       <c r="E125" s="2" t="s">
@@ -8434,15 +8434,15 @@
         <v>141</v>
       </c>
       <c r="B126" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A126,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C126" s="1" t="str">
-        <f>MID(A126, FIND("_", A126) + 1, FIND("_", A126, FIND("_", A126) + 1) - FIND("_", A126) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P3</v>
       </c>
       <c r="D126" s="1" t="str">
-        <f>RIGHT(A126, LEN(A126) - FIND("_", A126, FIND("_", A126) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220907</v>
       </c>
       <c r="E126" s="1" t="s">
@@ -8485,15 +8485,15 @@
         <v>144</v>
       </c>
       <c r="B127" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A127,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C127" s="2" t="str">
-        <f>MID(A127, FIND("_", A127) + 1, FIND("_", A127, FIND("_", A127) + 1) - FIND("_", A127) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P3</v>
       </c>
       <c r="D127" s="2" t="str">
-        <f>RIGHT(A127, LEN(A127) - FIND("_", A127, FIND("_", A127) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20220930</v>
       </c>
       <c r="E127" s="2" t="s">
@@ -8536,15 +8536,15 @@
         <v>148</v>
       </c>
       <c r="B128" s="7" t="str">
-        <f>_xlfn.TEXTBEFORE(A128,"_")</f>
+        <f t="shared" si="3"/>
         <v>GRY</v>
       </c>
       <c r="C128" s="7" t="str">
-        <f>MID(A128, FIND("_", A128) + 1, FIND("_", A128, FIND("_", A128) + 1) - FIND("_", A128) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P3</v>
       </c>
       <c r="D128" s="7" t="str">
-        <f>RIGHT(A128, LEN(A128) - FIND("_", A128, FIND("_", A128) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20221020</v>
       </c>
       <c r="E128" s="7" t="s">
@@ -8587,15 +8587,15 @@
         <v>150</v>
       </c>
       <c r="B129" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A129,"_")</f>
+        <f t="shared" si="3"/>
         <v>GUE</v>
       </c>
       <c r="C129" s="4" t="str">
-        <f>MID(A129, FIND("_", A129) + 1, FIND("_", A129, FIND("_", A129) + 1) - FIND("_", A129) - 1)</f>
+        <f t="shared" si="4"/>
         <v>P1</v>
       </c>
       <c r="D129" s="4" t="str">
-        <f>RIGHT(A129, LEN(A129) - FIND("_", A129, FIND("_", A129) + 1))</f>
+        <f t="shared" si="5"/>
         <v>20210611</v>
       </c>
       <c r="E129" s="4" t="s">
@@ -8640,15 +8640,15 @@
         <v>152</v>
       </c>
       <c r="B130" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A130,"_")</f>
+        <f t="shared" ref="B130:B193" si="6">_xlfn.TEXTBEFORE(A130,"_")</f>
         <v>GUE</v>
       </c>
       <c r="C130" s="4" t="str">
-        <f>MID(A130, FIND("_", A130) + 1, FIND("_", A130, FIND("_", A130) + 1) - FIND("_", A130) - 1)</f>
+        <f t="shared" ref="C130:C193" si="7">MID(A130, FIND("_", A130) + 1, FIND("_", A130, FIND("_", A130) + 1) - FIND("_", A130) - 1)</f>
         <v>P2</v>
       </c>
       <c r="D130" s="4" t="str">
-        <f>RIGHT(A130, LEN(A130) - FIND("_", A130, FIND("_", A130) + 1))</f>
+        <f t="shared" ref="D130:D193" si="8">RIGHT(A130, LEN(A130) - FIND("_", A130, FIND("_", A130) + 1))</f>
         <v>20210611</v>
       </c>
       <c r="E130" s="4" t="s">
@@ -8693,15 +8693,15 @@
         <v>153</v>
       </c>
       <c r="B131" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A131,"_")</f>
+        <f t="shared" si="6"/>
         <v>GUE</v>
       </c>
       <c r="C131" s="4" t="str">
-        <f>MID(A131, FIND("_", A131) + 1, FIND("_", A131, FIND("_", A131) + 1) - FIND("_", A131) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P3</v>
       </c>
       <c r="D131" s="4" t="str">
-        <f>RIGHT(A131, LEN(A131) - FIND("_", A131, FIND("_", A131) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20210611</v>
       </c>
       <c r="E131" s="4" t="s">
@@ -8746,15 +8746,15 @@
         <v>267</v>
       </c>
       <c r="B132" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A132,"_")</f>
+        <f t="shared" si="6"/>
         <v>JKL</v>
       </c>
       <c r="C132" s="1" t="str">
-        <f>MID(A132, FIND("_", A132) + 1, FIND("_", A132, FIND("_", A132) + 1) - FIND("_", A132) - 1)</f>
+        <f t="shared" si="7"/>
         <v>MID</v>
       </c>
       <c r="D132" s="1" t="str">
-        <f>RIGHT(A132, LEN(A132) - FIND("_", A132, FIND("_", A132) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20220728</v>
       </c>
       <c r="E132" s="1" t="s">
@@ -8797,15 +8797,15 @@
         <v>268</v>
       </c>
       <c r="B133" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A133,"_")</f>
+        <f t="shared" si="6"/>
         <v>JKL</v>
       </c>
       <c r="C133" s="1" t="str">
-        <f>MID(A133, FIND("_", A133) + 1, FIND("_", A133, FIND("_", A133) + 1) - FIND("_", A133) - 1)</f>
+        <f t="shared" si="7"/>
         <v>NORTH</v>
       </c>
       <c r="D133" s="1" t="str">
-        <f>RIGHT(A133, LEN(A133) - FIND("_", A133, FIND("_", A133) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20220728</v>
       </c>
       <c r="E133" s="1" t="s">
@@ -8848,15 +8848,15 @@
         <v>269</v>
       </c>
       <c r="B134" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A134,"_")</f>
+        <f t="shared" si="6"/>
         <v>JKL</v>
       </c>
       <c r="C134" s="1" t="str">
-        <f>MID(A134, FIND("_", A134) + 1, FIND("_", A134, FIND("_", A134) + 1) - FIND("_", A134) - 1)</f>
+        <f t="shared" si="7"/>
         <v>SIGNAL</v>
       </c>
       <c r="D134" s="1" t="str">
-        <f>RIGHT(A134, LEN(A134) - FIND("_", A134, FIND("_", A134) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20220728</v>
       </c>
       <c r="E134" s="1" t="s">
@@ -8899,15 +8899,15 @@
         <v>154</v>
       </c>
       <c r="B135" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A135,"_")</f>
+        <f t="shared" si="6"/>
         <v>LZN</v>
       </c>
       <c r="C135" s="1" t="str">
-        <f>MID(A135, FIND("_", A135) + 1, FIND("_", A135, FIND("_", A135) + 1) - FIND("_", A135) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P2</v>
       </c>
       <c r="D135" s="1" t="str">
-        <f>RIGHT(A135, LEN(A135) - FIND("_", A135, FIND("_", A135) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20220628</v>
       </c>
       <c r="E135" s="1" t="s">
@@ -8950,15 +8950,15 @@
         <v>185</v>
       </c>
       <c r="B136" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A136,"_")</f>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="C136" s="1" t="str">
-        <f>MID(A136, FIND("_", A136) + 1, FIND("_", A136, FIND("_", A136) + 1) - FIND("_", A136) - 1)</f>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="D136" s="1" t="str">
-        <f>RIGHT(A136, LEN(A136) - FIND("_", A136, FIND("_", A136) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20220511</v>
       </c>
       <c r="E136" s="1" t="s">
@@ -9001,15 +9001,15 @@
         <v>254</v>
       </c>
       <c r="B137" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A137,"_")</f>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="C137" s="1" t="str">
-        <f>MID(A137, FIND("_", A137) + 1, FIND("_", A137, FIND("_", A137) + 1) - FIND("_", A137) - 1)</f>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="D137" s="1" t="str">
-        <f>RIGHT(A137, LEN(A137) - FIND("_", A137, FIND("_", A137) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20220728</v>
       </c>
       <c r="E137" s="1" t="s">
@@ -9052,15 +9052,15 @@
         <v>254</v>
       </c>
       <c r="B138" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A138,"_")</f>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="C138" s="1" t="str">
-        <f>MID(A138, FIND("_", A138) + 1, FIND("_", A138, FIND("_", A138) + 1) - FIND("_", A138) - 1)</f>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="D138" s="1" t="str">
-        <f>RIGHT(A138, LEN(A138) - FIND("_", A138, FIND("_", A138) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20220728</v>
       </c>
       <c r="E138" s="1" t="s">
@@ -9103,15 +9103,15 @@
         <v>254</v>
       </c>
       <c r="B139" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A139,"_")</f>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="C139" s="1" t="str">
-        <f>MID(A139, FIND("_", A139) + 1, FIND("_", A139, FIND("_", A139) + 1) - FIND("_", A139) - 1)</f>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="D139" s="1" t="str">
-        <f>RIGHT(A139, LEN(A139) - FIND("_", A139, FIND("_", A139) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20220728</v>
       </c>
       <c r="E139" s="1" t="s">
@@ -9154,15 +9154,15 @@
         <v>255</v>
       </c>
       <c r="B140" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A140,"_")</f>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="C140" s="1" t="str">
-        <f>MID(A140, FIND("_", A140) + 1, FIND("_", A140, FIND("_", A140) + 1) - FIND("_", A140) - 1)</f>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="D140" s="1" t="str">
-        <f>RIGHT(A140, LEN(A140) - FIND("_", A140, FIND("_", A140) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20221006</v>
       </c>
       <c r="E140" s="1" t="s">
@@ -9205,15 +9205,15 @@
         <v>255</v>
       </c>
       <c r="B141" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A141,"_")</f>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="C141" s="1" t="str">
-        <f>MID(A141, FIND("_", A141) + 1, FIND("_", A141, FIND("_", A141) + 1) - FIND("_", A141) - 1)</f>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="D141" s="1" t="str">
-        <f>RIGHT(A141, LEN(A141) - FIND("_", A141, FIND("_", A141) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20221006</v>
       </c>
       <c r="E141" s="1" t="s">
@@ -9256,15 +9256,15 @@
         <v>255</v>
       </c>
       <c r="B142" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A142,"_")</f>
+        <f t="shared" si="6"/>
         <v>NA</v>
       </c>
       <c r="C142" s="1" t="str">
-        <f>MID(A142, FIND("_", A142) + 1, FIND("_", A142, FIND("_", A142) + 1) - FIND("_", A142) - 1)</f>
+        <f t="shared" si="7"/>
         <v>NA</v>
       </c>
       <c r="D142" s="1" t="str">
-        <f>RIGHT(A142, LEN(A142) - FIND("_", A142, FIND("_", A142) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20221006</v>
       </c>
       <c r="E142" s="1" t="s">
@@ -9307,15 +9307,15 @@
         <v>160</v>
       </c>
       <c r="B143" t="str">
-        <f>_xlfn.TEXTBEFORE(A143,"_")</f>
+        <f t="shared" si="6"/>
         <v>NFL</v>
       </c>
       <c r="C143" t="str">
-        <f>MID(A143, FIND("_", A143) + 1, FIND("_", A143, FIND("_", A143) + 1) - FIND("_", A143) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P1</v>
       </c>
       <c r="D143" t="str">
-        <f>RIGHT(A143, LEN(A143) - FIND("_", A143, FIND("_", A143) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20210817</v>
       </c>
       <c r="E143" t="s">
@@ -9357,15 +9357,15 @@
         <v>163</v>
       </c>
       <c r="B144" t="str">
-        <f>_xlfn.TEXTBEFORE(A144,"_")</f>
+        <f t="shared" si="6"/>
         <v>NFL</v>
       </c>
       <c r="C144" t="str">
-        <f>MID(A144, FIND("_", A144) + 1, FIND("_", A144, FIND("_", A144) + 1) - FIND("_", A144) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P1</v>
       </c>
       <c r="D144" t="str">
-        <f>RIGHT(A144, LEN(A144) - FIND("_", A144, FIND("_", A144) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20210914</v>
       </c>
       <c r="E144" t="s">
@@ -9407,15 +9407,15 @@
         <v>166</v>
       </c>
       <c r="B145" t="str">
-        <f>_xlfn.TEXTBEFORE(A145,"_")</f>
+        <f t="shared" si="6"/>
         <v>NFL</v>
       </c>
       <c r="C145" t="str">
-        <f>MID(A145, FIND("_", A145) + 1, FIND("_", A145, FIND("_", A145) + 1) - FIND("_", A145) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P1</v>
       </c>
       <c r="D145" t="str">
-        <f>RIGHT(A145, LEN(A145) - FIND("_", A145, FIND("_", A145) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20211019</v>
       </c>
       <c r="E145" t="s">
@@ -9457,15 +9457,15 @@
         <v>169</v>
       </c>
       <c r="B146" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A146,"_")</f>
+        <f t="shared" si="6"/>
         <v>NFL</v>
       </c>
       <c r="C146" s="1" t="str">
-        <f>MID(A146, FIND("_", A146) + 1, FIND("_", A146, FIND("_", A146) + 1) - FIND("_", A146) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P1</v>
       </c>
       <c r="D146" s="1" t="str">
-        <f>RIGHT(A146, LEN(A146) - FIND("_", A146, FIND("_", A146) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20211109</v>
       </c>
       <c r="E146" s="1" t="s">
@@ -9508,15 +9508,15 @@
         <v>155</v>
       </c>
       <c r="B147" t="str">
-        <f>_xlfn.TEXTBEFORE(A147,"_")</f>
+        <f t="shared" si="6"/>
         <v>NFL</v>
       </c>
       <c r="C147" t="str">
-        <f>MID(A147, FIND("_", A147) + 1, FIND("_", A147, FIND("_", A147) + 1) - FIND("_", A147) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P2</v>
       </c>
       <c r="D147" t="str">
-        <f>RIGHT(A147, LEN(A147) - FIND("_", A147, FIND("_", A147) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20210720</v>
       </c>
       <c r="E147" t="s">
@@ -9558,15 +9558,15 @@
         <v>157</v>
       </c>
       <c r="B148" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A148,"_")</f>
+        <f t="shared" si="6"/>
         <v>NFL</v>
       </c>
       <c r="C148" s="1" t="str">
-        <f>MID(A148, FIND("_", A148) + 1, FIND("_", A148, FIND("_", A148) + 1) - FIND("_", A148) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P2</v>
       </c>
       <c r="D148" s="1" t="str">
-        <f>RIGHT(A148, LEN(A148) - FIND("_", A148, FIND("_", A148) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20210805</v>
       </c>
       <c r="E148" s="1" t="s">
@@ -9609,15 +9609,15 @@
         <v>161</v>
       </c>
       <c r="B149" t="str">
-        <f>_xlfn.TEXTBEFORE(A149,"_")</f>
+        <f t="shared" si="6"/>
         <v>NFL</v>
       </c>
       <c r="C149" t="str">
-        <f>MID(A149, FIND("_", A149) + 1, FIND("_", A149, FIND("_", A149) + 1) - FIND("_", A149) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P2</v>
       </c>
       <c r="D149" t="str">
-        <f>RIGHT(A149, LEN(A149) - FIND("_", A149, FIND("_", A149) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20210817</v>
       </c>
       <c r="E149" t="s">
@@ -9659,15 +9659,15 @@
         <v>164</v>
       </c>
       <c r="B150" t="str">
-        <f>_xlfn.TEXTBEFORE(A150,"_")</f>
+        <f t="shared" si="6"/>
         <v>NFL</v>
       </c>
       <c r="C150" t="str">
-        <f>MID(A150, FIND("_", A150) + 1, FIND("_", A150, FIND("_", A150) + 1) - FIND("_", A150) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P2</v>
       </c>
       <c r="D150" t="str">
-        <f>RIGHT(A150, LEN(A150) - FIND("_", A150, FIND("_", A150) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20210914</v>
       </c>
       <c r="E150" t="s">
@@ -9709,15 +9709,15 @@
         <v>167</v>
       </c>
       <c r="B151" t="str">
-        <f>_xlfn.TEXTBEFORE(A151,"_")</f>
+        <f t="shared" si="6"/>
         <v>NFL</v>
       </c>
       <c r="C151" t="str">
-        <f>MID(A151, FIND("_", A151) + 1, FIND("_", A151, FIND("_", A151) + 1) - FIND("_", A151) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P2</v>
       </c>
       <c r="D151" t="str">
-        <f>RIGHT(A151, LEN(A151) - FIND("_", A151, FIND("_", A151) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20211019</v>
       </c>
       <c r="E151" t="s">
@@ -9759,15 +9759,15 @@
         <v>170</v>
       </c>
       <c r="B152" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A152,"_")</f>
+        <f t="shared" si="6"/>
         <v>NFL</v>
       </c>
       <c r="C152" s="1" t="str">
-        <f>MID(A152, FIND("_", A152) + 1, FIND("_", A152, FIND("_", A152) + 1) - FIND("_", A152) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P2</v>
       </c>
       <c r="D152" s="1" t="str">
-        <f>RIGHT(A152, LEN(A152) - FIND("_", A152, FIND("_", A152) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20211109</v>
       </c>
       <c r="E152" s="1" t="s">
@@ -9810,15 +9810,15 @@
         <v>156</v>
       </c>
       <c r="B153" t="str">
-        <f>_xlfn.TEXTBEFORE(A153,"_")</f>
+        <f t="shared" si="6"/>
         <v>NFL</v>
       </c>
       <c r="C153" t="str">
-        <f>MID(A153, FIND("_", A153) + 1, FIND("_", A153, FIND("_", A153) + 1) - FIND("_", A153) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P3</v>
       </c>
       <c r="D153" t="str">
-        <f>RIGHT(A153, LEN(A153) - FIND("_", A153, FIND("_", A153) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20210720</v>
       </c>
       <c r="E153" t="s">
@@ -9860,15 +9860,15 @@
         <v>159</v>
       </c>
       <c r="B154" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A154,"_")</f>
+        <f t="shared" si="6"/>
         <v>NFL</v>
       </c>
       <c r="C154" s="1" t="str">
-        <f>MID(A154, FIND("_", A154) + 1, FIND("_", A154, FIND("_", A154) + 1) - FIND("_", A154) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P3</v>
       </c>
       <c r="D154" s="1" t="str">
-        <f>RIGHT(A154, LEN(A154) - FIND("_", A154, FIND("_", A154) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20210805</v>
       </c>
       <c r="E154" s="1" t="s">
@@ -9911,15 +9911,15 @@
         <v>162</v>
       </c>
       <c r="B155" t="str">
-        <f>_xlfn.TEXTBEFORE(A155,"_")</f>
+        <f t="shared" si="6"/>
         <v>NFL</v>
       </c>
       <c r="C155" t="str">
-        <f>MID(A155, FIND("_", A155) + 1, FIND("_", A155, FIND("_", A155) + 1) - FIND("_", A155) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P3</v>
       </c>
       <c r="D155" t="str">
-        <f>RIGHT(A155, LEN(A155) - FIND("_", A155, FIND("_", A155) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20210817</v>
       </c>
       <c r="E155" t="s">
@@ -9961,15 +9961,15 @@
         <v>165</v>
       </c>
       <c r="B156" t="str">
-        <f>_xlfn.TEXTBEFORE(A156,"_")</f>
+        <f t="shared" si="6"/>
         <v>NFL</v>
       </c>
       <c r="C156" t="str">
-        <f>MID(A156, FIND("_", A156) + 1, FIND("_", A156, FIND("_", A156) + 1) - FIND("_", A156) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P3</v>
       </c>
       <c r="D156" t="str">
-        <f>RIGHT(A156, LEN(A156) - FIND("_", A156, FIND("_", A156) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20210914</v>
       </c>
       <c r="E156" t="s">
@@ -10011,15 +10011,15 @@
         <v>168</v>
       </c>
       <c r="B157" t="str">
-        <f>_xlfn.TEXTBEFORE(A157,"_")</f>
+        <f t="shared" si="6"/>
         <v>NFL</v>
       </c>
       <c r="C157" t="str">
-        <f>MID(A157, FIND("_", A157) + 1, FIND("_", A157, FIND("_", A157) + 1) - FIND("_", A157) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P3</v>
       </c>
       <c r="D157" t="str">
-        <f>RIGHT(A157, LEN(A157) - FIND("_", A157, FIND("_", A157) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20211019</v>
       </c>
       <c r="E157" t="s">
@@ -10061,15 +10061,15 @@
         <v>171</v>
       </c>
       <c r="B158" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A158,"_")</f>
+        <f t="shared" si="6"/>
         <v>NFL</v>
       </c>
       <c r="C158" s="1" t="str">
-        <f>MID(A158, FIND("_", A158) + 1, FIND("_", A158, FIND("_", A158) + 1) - FIND("_", A158) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P3</v>
       </c>
       <c r="D158" s="1" t="str">
-        <f>RIGHT(A158, LEN(A158) - FIND("_", A158, FIND("_", A158) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20211109</v>
       </c>
       <c r="E158" s="1" t="s">
@@ -10112,15 +10112,15 @@
         <v>270</v>
       </c>
       <c r="B159" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A159,"_")</f>
+        <f t="shared" si="6"/>
         <v>NFL</v>
       </c>
       <c r="C159" s="1" t="str">
-        <f>MID(A159, FIND("_", A159) + 1, FIND("_", A159, FIND("_", A159) + 1) - FIND("_", A159) - 1)</f>
+        <f t="shared" si="7"/>
         <v>UPPER2</v>
       </c>
       <c r="D159" s="1" t="str">
-        <f>RIGHT(A159, LEN(A159) - FIND("_", A159, FIND("_", A159) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20211109</v>
       </c>
       <c r="E159" s="1" t="s">
@@ -10163,15 +10163,15 @@
         <v>174</v>
       </c>
       <c r="B160" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A160,"_")</f>
+        <f t="shared" si="6"/>
         <v>OCE</v>
       </c>
       <c r="C160" s="1" t="str">
-        <f>MID(A160, FIND("_", A160) + 1, FIND("_", A160, FIND("_", A160) + 1) - FIND("_", A160) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P1</v>
       </c>
       <c r="D160" s="1" t="str">
-        <f>RIGHT(A160, LEN(A160) - FIND("_", A160, FIND("_", A160) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20210617</v>
       </c>
       <c r="E160" s="1" t="s">
@@ -10214,15 +10214,15 @@
         <v>175</v>
       </c>
       <c r="B161" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A161,"_")</f>
+        <f t="shared" si="6"/>
         <v>OCE</v>
       </c>
       <c r="C161" s="1" t="str">
-        <f>MID(A161, FIND("_", A161) + 1, FIND("_", A161, FIND("_", A161) + 1) - FIND("_", A161) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P1</v>
       </c>
       <c r="D161" s="1" t="str">
-        <f>RIGHT(A161, LEN(A161) - FIND("_", A161, FIND("_", A161) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20210727</v>
       </c>
       <c r="E161" s="1" t="s">
@@ -10265,15 +10265,15 @@
         <v>178</v>
       </c>
       <c r="B162" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A162,"_")</f>
+        <f t="shared" si="6"/>
         <v>OCE</v>
       </c>
       <c r="C162" s="1" t="str">
-        <f>MID(A162, FIND("_", A162) + 1, FIND("_", A162, FIND("_", A162) + 1) - FIND("_", A162) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P1</v>
       </c>
       <c r="D162" s="1" t="str">
-        <f>RIGHT(A162, LEN(A162) - FIND("_", A162, FIND("_", A162) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20210810</v>
       </c>
       <c r="E162" s="1" t="s">
@@ -10316,15 +10316,15 @@
         <v>172</v>
       </c>
       <c r="B163" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A163,"_")</f>
+        <f t="shared" si="6"/>
         <v>OCE</v>
       </c>
       <c r="C163" s="1" t="str">
-        <f>MID(A163, FIND("_", A163) + 1, FIND("_", A163, FIND("_", A163) + 1) - FIND("_", A163) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P2</v>
       </c>
       <c r="D163" s="1" t="str">
-        <f>RIGHT(A163, LEN(A163) - FIND("_", A163, FIND("_", A163) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20210616</v>
       </c>
       <c r="E163" s="1" t="s">
@@ -10367,15 +10367,15 @@
         <v>176</v>
       </c>
       <c r="B164" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A164,"_")</f>
+        <f t="shared" si="6"/>
         <v>OCE</v>
       </c>
       <c r="C164" s="1" t="str">
-        <f>MID(A164, FIND("_", A164) + 1, FIND("_", A164, FIND("_", A164) + 1) - FIND("_", A164) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P2</v>
       </c>
       <c r="D164" s="1" t="str">
-        <f>RIGHT(A164, LEN(A164) - FIND("_", A164, FIND("_", A164) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20210727</v>
       </c>
       <c r="E164" s="1" t="s">
@@ -10418,15 +10418,15 @@
         <v>179</v>
       </c>
       <c r="B165" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A165,"_")</f>
+        <f t="shared" si="6"/>
         <v>OCE</v>
       </c>
       <c r="C165" s="1" t="str">
-        <f>MID(A165, FIND("_", A165) + 1, FIND("_", A165, FIND("_", A165) + 1) - FIND("_", A165) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P2</v>
       </c>
       <c r="D165" s="1" t="str">
-        <f>RIGHT(A165, LEN(A165) - FIND("_", A165, FIND("_", A165) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20210810</v>
       </c>
       <c r="E165" s="1" t="s">
@@ -10469,15 +10469,15 @@
         <v>173</v>
       </c>
       <c r="B166" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A166,"_")</f>
+        <f t="shared" si="6"/>
         <v>OCE</v>
       </c>
       <c r="C166" s="1" t="str">
-        <f>MID(A166, FIND("_", A166) + 1, FIND("_", A166, FIND("_", A166) + 1) - FIND("_", A166) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P3</v>
       </c>
       <c r="D166" s="1" t="str">
-        <f>RIGHT(A166, LEN(A166) - FIND("_", A166, FIND("_", A166) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20210616</v>
       </c>
       <c r="E166" s="1" t="s">
@@ -10520,15 +10520,15 @@
         <v>177</v>
       </c>
       <c r="B167" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A167,"_")</f>
+        <f t="shared" si="6"/>
         <v>OCE</v>
       </c>
       <c r="C167" s="1" t="str">
-        <f>MID(A167, FIND("_", A167) + 1, FIND("_", A167, FIND("_", A167) + 1) - FIND("_", A167) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P3</v>
       </c>
       <c r="D167" s="1" t="str">
-        <f>RIGHT(A167, LEN(A167) - FIND("_", A167, FIND("_", A167) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20210727</v>
       </c>
       <c r="E167" s="1" t="s">
@@ -10571,15 +10571,15 @@
         <v>180</v>
       </c>
       <c r="B168" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A168,"_")</f>
+        <f t="shared" si="6"/>
         <v>PIL</v>
       </c>
       <c r="C168" s="1" t="str">
-        <f>MID(A168, FIND("_", A168) + 1, FIND("_", A168, FIND("_", A168) + 1) - FIND("_", A168) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P1</v>
       </c>
       <c r="D168" s="1" t="str">
-        <f>RIGHT(A168, LEN(A168) - FIND("_", A168, FIND("_", A168) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20210617</v>
       </c>
       <c r="E168" s="1" t="s">
@@ -10622,15 +10622,15 @@
         <v>181</v>
       </c>
       <c r="B169" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A169,"_")</f>
+        <f t="shared" si="6"/>
         <v>PIL</v>
       </c>
       <c r="C169" s="1" t="str">
-        <f>MID(A169, FIND("_", A169) + 1, FIND("_", A169, FIND("_", A169) + 1) - FIND("_", A169) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P2</v>
       </c>
       <c r="D169" s="1" t="str">
-        <f>RIGHT(A169, LEN(A169) - FIND("_", A169, FIND("_", A169) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20210617</v>
       </c>
       <c r="E169" s="1" t="s">
@@ -10673,15 +10673,15 @@
         <v>181</v>
       </c>
       <c r="B170" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A170,"_")</f>
+        <f t="shared" si="6"/>
         <v>PIL</v>
       </c>
       <c r="C170" s="1" t="str">
-        <f>MID(A170, FIND("_", A170) + 1, FIND("_", A170, FIND("_", A170) + 1) - FIND("_", A170) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P2</v>
       </c>
       <c r="D170" s="1" t="str">
-        <f>RIGHT(A170, LEN(A170) - FIND("_", A170, FIND("_", A170) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20210617</v>
       </c>
       <c r="E170" s="1" t="s">
@@ -10724,15 +10724,15 @@
         <v>182</v>
       </c>
       <c r="B171" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A171,"_")</f>
+        <f t="shared" si="6"/>
         <v>PIL</v>
       </c>
       <c r="C171" s="1" t="str">
-        <f>MID(A171, FIND("_", A171) + 1, FIND("_", A171, FIND("_", A171) + 1) - FIND("_", A171) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P3</v>
       </c>
       <c r="D171" s="1" t="str">
-        <f>RIGHT(A171, LEN(A171) - FIND("_", A171, FIND("_", A171) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20210617</v>
       </c>
       <c r="E171" s="1" t="s">
@@ -10775,15 +10775,15 @@
         <v>183</v>
       </c>
       <c r="B172" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A172,"_")</f>
+        <f t="shared" si="6"/>
         <v>SAR</v>
       </c>
       <c r="C172" s="1" t="str">
-        <f>MID(A172, FIND("_", A172) + 1, FIND("_", A172, FIND("_", A172) + 1) - FIND("_", A172) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P1</v>
       </c>
       <c r="D172" s="1" t="str">
-        <f>RIGHT(A172, LEN(A172) - FIND("_", A172, FIND("_", A172) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20220511</v>
       </c>
       <c r="E172" s="1" t="s">
@@ -10826,15 +10826,15 @@
         <v>187</v>
       </c>
       <c r="B173" t="str">
-        <f>_xlfn.TEXTBEFORE(A173,"_")</f>
+        <f t="shared" si="6"/>
         <v>SAR</v>
       </c>
       <c r="C173" t="str">
-        <f>MID(A173, FIND("_", A173) + 1, FIND("_", A173, FIND("_", A173) + 1) - FIND("_", A173) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P1</v>
       </c>
       <c r="D173" t="str">
-        <f>RIGHT(A173, LEN(A173) - FIND("_", A173, FIND("_", A173) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20220524</v>
       </c>
       <c r="E173" t="s">
@@ -10876,15 +10876,15 @@
         <v>190</v>
       </c>
       <c r="B174" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A174,"_")</f>
+        <f t="shared" si="6"/>
         <v>SAR</v>
       </c>
       <c r="C174" s="1" t="str">
-        <f>MID(A174, FIND("_", A174) + 1, FIND("_", A174, FIND("_", A174) + 1) - FIND("_", A174) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P1</v>
       </c>
       <c r="D174" s="1" t="str">
-        <f>RIGHT(A174, LEN(A174) - FIND("_", A174, FIND("_", A174) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20220608</v>
       </c>
       <c r="E174" s="1" t="s">
@@ -10927,15 +10927,15 @@
         <v>193</v>
       </c>
       <c r="B175" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A175,"_")</f>
+        <f t="shared" si="6"/>
         <v>SAR</v>
       </c>
       <c r="C175" s="2" t="str">
-        <f>MID(A175, FIND("_", A175) + 1, FIND("_", A175, FIND("_", A175) + 1) - FIND("_", A175) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P1</v>
       </c>
       <c r="D175" s="2" t="str">
-        <f>RIGHT(A175, LEN(A175) - FIND("_", A175, FIND("_", A175) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20220621</v>
       </c>
       <c r="E175" s="2" t="s">
@@ -10978,15 +10978,15 @@
         <v>196</v>
       </c>
       <c r="B176" t="str">
-        <f>_xlfn.TEXTBEFORE(A176,"_")</f>
+        <f t="shared" si="6"/>
         <v>SAR</v>
       </c>
       <c r="C176" t="str">
-        <f>MID(A176, FIND("_", A176) + 1, FIND("_", A176, FIND("_", A176) + 1) - FIND("_", A176) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P1</v>
       </c>
       <c r="D176" t="str">
-        <f>RIGHT(A176, LEN(A176) - FIND("_", A176, FIND("_", A176) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20220712</v>
       </c>
       <c r="E176" t="s">
@@ -11028,15 +11028,15 @@
         <v>199</v>
       </c>
       <c r="B177" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A177,"_")</f>
+        <f t="shared" si="6"/>
         <v>SAR</v>
       </c>
       <c r="C177" s="2" t="str">
-        <f>MID(A177, FIND("_", A177) + 1, FIND("_", A177, FIND("_", A177) + 1) - FIND("_", A177) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P1</v>
       </c>
       <c r="D177" s="2" t="str">
-        <f>RIGHT(A177, LEN(A177) - FIND("_", A177, FIND("_", A177) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20220728</v>
       </c>
       <c r="E177" s="2" t="s">
@@ -11079,15 +11079,15 @@
         <v>202</v>
       </c>
       <c r="B178" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A178,"_")</f>
+        <f t="shared" si="6"/>
         <v>SAR</v>
       </c>
       <c r="C178" s="2" t="str">
-        <f>MID(A178, FIND("_", A178) + 1, FIND("_", A178, FIND("_", A178) + 1) - FIND("_", A178) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P1</v>
       </c>
       <c r="D178" s="2" t="str">
-        <f>RIGHT(A178, LEN(A178) - FIND("_", A178, FIND("_", A178) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20220812</v>
       </c>
       <c r="E178" s="2" t="s">
@@ -11130,15 +11130,15 @@
         <v>205</v>
       </c>
       <c r="B179" t="str">
-        <f>_xlfn.TEXTBEFORE(A179,"_")</f>
+        <f t="shared" si="6"/>
         <v>SAR</v>
       </c>
       <c r="C179" t="str">
-        <f>MID(A179, FIND("_", A179) + 1, FIND("_", A179, FIND("_", A179) + 1) - FIND("_", A179) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P1</v>
       </c>
       <c r="D179" t="str">
-        <f>RIGHT(A179, LEN(A179) - FIND("_", A179, FIND("_", A179) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20220819</v>
       </c>
       <c r="E179" t="s">
@@ -11180,15 +11180,15 @@
         <v>208</v>
       </c>
       <c r="B180" t="str">
-        <f>_xlfn.TEXTBEFORE(A180,"_")</f>
+        <f t="shared" si="6"/>
         <v>SAR</v>
       </c>
       <c r="C180" t="str">
-        <f>MID(A180, FIND("_", A180) + 1, FIND("_", A180, FIND("_", A180) + 1) - FIND("_", A180) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P1</v>
       </c>
       <c r="D180" t="str">
-        <f>RIGHT(A180, LEN(A180) - FIND("_", A180, FIND("_", A180) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20220831</v>
       </c>
       <c r="E180" t="s">
@@ -11230,15 +11230,15 @@
         <v>211</v>
       </c>
       <c r="B181" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A181,"_")</f>
+        <f t="shared" si="6"/>
         <v>SAR</v>
       </c>
       <c r="C181" s="4" t="str">
-        <f>MID(A181, FIND("_", A181) + 1, FIND("_", A181, FIND("_", A181) + 1) - FIND("_", A181) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P1</v>
       </c>
       <c r="D181" s="4" t="str">
-        <f>RIGHT(A181, LEN(A181) - FIND("_", A181, FIND("_", A181) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20220912</v>
       </c>
       <c r="E181" s="4" t="s">
@@ -11283,15 +11283,15 @@
         <v>214</v>
       </c>
       <c r="B182" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A182,"_")</f>
+        <f t="shared" si="6"/>
         <v>SAR</v>
       </c>
       <c r="C182" s="1" t="str">
-        <f>MID(A182, FIND("_", A182) + 1, FIND("_", A182, FIND("_", A182) + 1) - FIND("_", A182) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P1</v>
       </c>
       <c r="D182" s="1" t="str">
-        <f>RIGHT(A182, LEN(A182) - FIND("_", A182, FIND("_", A182) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20220928</v>
       </c>
       <c r="E182" s="1" t="s">
@@ -11334,15 +11334,15 @@
         <v>217</v>
       </c>
       <c r="B183" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A183,"_")</f>
+        <f t="shared" si="6"/>
         <v>SAR</v>
       </c>
       <c r="C183" s="1" t="str">
-        <f>MID(A183, FIND("_", A183) + 1, FIND("_", A183, FIND("_", A183) + 1) - FIND("_", A183) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P1</v>
       </c>
       <c r="D183" s="1" t="str">
-        <f>RIGHT(A183, LEN(A183) - FIND("_", A183, FIND("_", A183) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20221019</v>
       </c>
       <c r="E183" s="1" t="s">
@@ -11385,15 +11385,15 @@
         <v>220</v>
       </c>
       <c r="B184" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A184,"_")</f>
+        <f t="shared" si="6"/>
         <v>SAR</v>
       </c>
       <c r="C184" s="1" t="str">
-        <f>MID(A184, FIND("_", A184) + 1, FIND("_", A184, FIND("_", A184) + 1) - FIND("_", A184) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P1</v>
       </c>
       <c r="D184" s="1" t="str">
-        <f>RIGHT(A184, LEN(A184) - FIND("_", A184, FIND("_", A184) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20221028</v>
       </c>
       <c r="E184" s="1" t="s">
@@ -11436,15 +11436,15 @@
         <v>184</v>
       </c>
       <c r="B185" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A185,"_")</f>
+        <f t="shared" si="6"/>
         <v>SAR</v>
       </c>
       <c r="C185" s="1" t="str">
-        <f>MID(A185, FIND("_", A185) + 1, FIND("_", A185, FIND("_", A185) + 1) - FIND("_", A185) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P2</v>
       </c>
       <c r="D185" s="1" t="str">
-        <f>RIGHT(A185, LEN(A185) - FIND("_", A185, FIND("_", A185) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20220511</v>
       </c>
       <c r="E185" s="1" t="s">
@@ -11487,15 +11487,15 @@
         <v>188</v>
       </c>
       <c r="B186" t="str">
-        <f>_xlfn.TEXTBEFORE(A186,"_")</f>
+        <f t="shared" si="6"/>
         <v>SAR</v>
       </c>
       <c r="C186" t="str">
-        <f>MID(A186, FIND("_", A186) + 1, FIND("_", A186, FIND("_", A186) + 1) - FIND("_", A186) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P2</v>
       </c>
       <c r="D186" t="str">
-        <f>RIGHT(A186, LEN(A186) - FIND("_", A186, FIND("_", A186) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20220524</v>
       </c>
       <c r="E186" t="s">
@@ -11537,15 +11537,15 @@
         <v>191</v>
       </c>
       <c r="B187" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A187,"_")</f>
+        <f t="shared" si="6"/>
         <v>SAR</v>
       </c>
       <c r="C187" s="1" t="str">
-        <f>MID(A187, FIND("_", A187) + 1, FIND("_", A187, FIND("_", A187) + 1) - FIND("_", A187) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P2</v>
       </c>
       <c r="D187" s="1" t="str">
-        <f>RIGHT(A187, LEN(A187) - FIND("_", A187, FIND("_", A187) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20220608</v>
       </c>
       <c r="E187" s="1" t="s">
@@ -11588,15 +11588,15 @@
         <v>194</v>
       </c>
       <c r="B188" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A188,"_")</f>
+        <f t="shared" si="6"/>
         <v>SAR</v>
       </c>
       <c r="C188" s="2" t="str">
-        <f>MID(A188, FIND("_", A188) + 1, FIND("_", A188, FIND("_", A188) + 1) - FIND("_", A188) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P2</v>
       </c>
       <c r="D188" s="2" t="str">
-        <f>RIGHT(A188, LEN(A188) - FIND("_", A188, FIND("_", A188) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20220621</v>
       </c>
       <c r="E188" s="2" t="s">
@@ -11639,15 +11639,15 @@
         <v>197</v>
       </c>
       <c r="B189" t="str">
-        <f>_xlfn.TEXTBEFORE(A189,"_")</f>
+        <f t="shared" si="6"/>
         <v>SAR</v>
       </c>
       <c r="C189" t="str">
-        <f>MID(A189, FIND("_", A189) + 1, FIND("_", A189, FIND("_", A189) + 1) - FIND("_", A189) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P2</v>
       </c>
       <c r="D189" t="str">
-        <f>RIGHT(A189, LEN(A189) - FIND("_", A189, FIND("_", A189) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20220712</v>
       </c>
       <c r="E189" t="s">
@@ -11689,15 +11689,15 @@
         <v>200</v>
       </c>
       <c r="B190" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A190,"_")</f>
+        <f t="shared" si="6"/>
         <v>SAR</v>
       </c>
       <c r="C190" s="2" t="str">
-        <f>MID(A190, FIND("_", A190) + 1, FIND("_", A190, FIND("_", A190) + 1) - FIND("_", A190) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P2</v>
       </c>
       <c r="D190" s="2" t="str">
-        <f>RIGHT(A190, LEN(A190) - FIND("_", A190, FIND("_", A190) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20220728</v>
       </c>
       <c r="E190" s="2" t="s">
@@ -11740,15 +11740,15 @@
         <v>203</v>
       </c>
       <c r="B191" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A191,"_")</f>
+        <f t="shared" si="6"/>
         <v>SAR</v>
       </c>
       <c r="C191" s="2" t="str">
-        <f>MID(A191, FIND("_", A191) + 1, FIND("_", A191, FIND("_", A191) + 1) - FIND("_", A191) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P2</v>
       </c>
       <c r="D191" s="2" t="str">
-        <f>RIGHT(A191, LEN(A191) - FIND("_", A191, FIND("_", A191) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20220812</v>
       </c>
       <c r="E191" s="2" t="s">
@@ -11791,15 +11791,15 @@
         <v>206</v>
       </c>
       <c r="B192" t="str">
-        <f>_xlfn.TEXTBEFORE(A192,"_")</f>
+        <f t="shared" si="6"/>
         <v>SAR</v>
       </c>
       <c r="C192" t="str">
-        <f>MID(A192, FIND("_", A192) + 1, FIND("_", A192, FIND("_", A192) + 1) - FIND("_", A192) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P2</v>
       </c>
       <c r="D192" t="str">
-        <f>RIGHT(A192, LEN(A192) - FIND("_", A192, FIND("_", A192) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20220819</v>
       </c>
       <c r="E192" t="s">
@@ -11841,15 +11841,15 @@
         <v>209</v>
       </c>
       <c r="B193" t="str">
-        <f>_xlfn.TEXTBEFORE(A193,"_")</f>
+        <f t="shared" si="6"/>
         <v>SAR</v>
       </c>
       <c r="C193" t="str">
-        <f>MID(A193, FIND("_", A193) + 1, FIND("_", A193, FIND("_", A193) + 1) - FIND("_", A193) - 1)</f>
+        <f t="shared" si="7"/>
         <v>P2</v>
       </c>
       <c r="D193" t="str">
-        <f>RIGHT(A193, LEN(A193) - FIND("_", A193, FIND("_", A193) + 1))</f>
+        <f t="shared" si="8"/>
         <v>20220831</v>
       </c>
       <c r="E193" t="s">
@@ -11891,15 +11891,15 @@
         <v>212</v>
       </c>
       <c r="B194" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A194,"_")</f>
+        <f t="shared" ref="B194:B257" si="9">_xlfn.TEXTBEFORE(A194,"_")</f>
         <v>SAR</v>
       </c>
       <c r="C194" s="4" t="str">
-        <f>MID(A194, FIND("_", A194) + 1, FIND("_", A194, FIND("_", A194) + 1) - FIND("_", A194) - 1)</f>
+        <f t="shared" ref="C194:C247" si="10">MID(A194, FIND("_", A194) + 1, FIND("_", A194, FIND("_", A194) + 1) - FIND("_", A194) - 1)</f>
         <v>P2</v>
       </c>
       <c r="D194" s="4" t="str">
-        <f>RIGHT(A194, LEN(A194) - FIND("_", A194, FIND("_", A194) + 1))</f>
+        <f t="shared" ref="D194:D247" si="11">RIGHT(A194, LEN(A194) - FIND("_", A194, FIND("_", A194) + 1))</f>
         <v>20220912</v>
       </c>
       <c r="E194" s="4" t="s">
@@ -11944,15 +11944,15 @@
         <v>215</v>
       </c>
       <c r="B195" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A195,"_")</f>
+        <f t="shared" si="9"/>
         <v>SAR</v>
       </c>
       <c r="C195" s="1" t="str">
-        <f>MID(A195, FIND("_", A195) + 1, FIND("_", A195, FIND("_", A195) + 1) - FIND("_", A195) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P2</v>
       </c>
       <c r="D195" s="1" t="str">
-        <f>RIGHT(A195, LEN(A195) - FIND("_", A195, FIND("_", A195) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20220928</v>
       </c>
       <c r="E195" s="1" t="s">
@@ -11995,15 +11995,15 @@
         <v>218</v>
       </c>
       <c r="B196" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A196,"_")</f>
+        <f t="shared" si="9"/>
         <v>SAR</v>
       </c>
       <c r="C196" s="1" t="str">
-        <f>MID(A196, FIND("_", A196) + 1, FIND("_", A196, FIND("_", A196) + 1) - FIND("_", A196) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P2</v>
       </c>
       <c r="D196" s="1" t="str">
-        <f>RIGHT(A196, LEN(A196) - FIND("_", A196, FIND("_", A196) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20221019</v>
       </c>
       <c r="E196" s="1" t="s">
@@ -12046,15 +12046,15 @@
         <v>221</v>
       </c>
       <c r="B197" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A197,"_")</f>
+        <f t="shared" si="9"/>
         <v>SAR</v>
       </c>
       <c r="C197" s="1" t="str">
-        <f>MID(A197, FIND("_", A197) + 1, FIND("_", A197, FIND("_", A197) + 1) - FIND("_", A197) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P2</v>
       </c>
       <c r="D197" s="1" t="str">
-        <f>RIGHT(A197, LEN(A197) - FIND("_", A197, FIND("_", A197) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20221028</v>
       </c>
       <c r="E197" s="1" t="s">
@@ -12097,15 +12097,15 @@
         <v>186</v>
       </c>
       <c r="B198" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A198,"_")</f>
+        <f t="shared" si="9"/>
         <v>SAR</v>
       </c>
       <c r="C198" s="1" t="str">
-        <f>MID(A198, FIND("_", A198) + 1, FIND("_", A198, FIND("_", A198) + 1) - FIND("_", A198) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P3</v>
       </c>
       <c r="D198" s="1" t="str">
-        <f>RIGHT(A198, LEN(A198) - FIND("_", A198, FIND("_", A198) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20220511</v>
       </c>
       <c r="E198" s="1" t="s">
@@ -12148,15 +12148,15 @@
         <v>189</v>
       </c>
       <c r="B199" t="str">
-        <f>_xlfn.TEXTBEFORE(A199,"_")</f>
+        <f t="shared" si="9"/>
         <v>SAR</v>
       </c>
       <c r="C199" t="str">
-        <f>MID(A199, FIND("_", A199) + 1, FIND("_", A199, FIND("_", A199) + 1) - FIND("_", A199) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P3</v>
       </c>
       <c r="D199" t="str">
-        <f>RIGHT(A199, LEN(A199) - FIND("_", A199, FIND("_", A199) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20220524</v>
       </c>
       <c r="E199" t="s">
@@ -12198,15 +12198,15 @@
         <v>192</v>
       </c>
       <c r="B200" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A200,"_")</f>
+        <f t="shared" si="9"/>
         <v>SAR</v>
       </c>
       <c r="C200" s="1" t="str">
-        <f>MID(A200, FIND("_", A200) + 1, FIND("_", A200, FIND("_", A200) + 1) - FIND("_", A200) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P3</v>
       </c>
       <c r="D200" s="1" t="str">
-        <f>RIGHT(A200, LEN(A200) - FIND("_", A200, FIND("_", A200) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20220608</v>
       </c>
       <c r="E200" s="1" t="s">
@@ -12249,15 +12249,15 @@
         <v>195</v>
       </c>
       <c r="B201" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A201,"_")</f>
+        <f t="shared" si="9"/>
         <v>SAR</v>
       </c>
       <c r="C201" s="2" t="str">
-        <f>MID(A201, FIND("_", A201) + 1, FIND("_", A201, FIND("_", A201) + 1) - FIND("_", A201) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P3</v>
       </c>
       <c r="D201" s="2" t="str">
-        <f>RIGHT(A201, LEN(A201) - FIND("_", A201, FIND("_", A201) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20220621</v>
       </c>
       <c r="E201" s="2" t="s">
@@ -12300,15 +12300,15 @@
         <v>198</v>
       </c>
       <c r="B202" t="str">
-        <f>_xlfn.TEXTBEFORE(A202,"_")</f>
+        <f t="shared" si="9"/>
         <v>SAR</v>
       </c>
       <c r="C202" t="str">
-        <f>MID(A202, FIND("_", A202) + 1, FIND("_", A202, FIND("_", A202) + 1) - FIND("_", A202) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P3</v>
       </c>
       <c r="D202" t="str">
-        <f>RIGHT(A202, LEN(A202) - FIND("_", A202, FIND("_", A202) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20220712</v>
       </c>
       <c r="E202" t="s">
@@ -12350,15 +12350,15 @@
         <v>201</v>
       </c>
       <c r="B203" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A203,"_")</f>
+        <f t="shared" si="9"/>
         <v>SAR</v>
       </c>
       <c r="C203" s="2" t="str">
-        <f>MID(A203, FIND("_", A203) + 1, FIND("_", A203, FIND("_", A203) + 1) - FIND("_", A203) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P3</v>
       </c>
       <c r="D203" s="2" t="str">
-        <f>RIGHT(A203, LEN(A203) - FIND("_", A203, FIND("_", A203) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20220728</v>
       </c>
       <c r="E203" s="2" t="s">
@@ -12401,15 +12401,15 @@
         <v>204</v>
       </c>
       <c r="B204" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A204,"_")</f>
+        <f t="shared" si="9"/>
         <v>SAR</v>
       </c>
       <c r="C204" s="2" t="str">
-        <f>MID(A204, FIND("_", A204) + 1, FIND("_", A204, FIND("_", A204) + 1) - FIND("_", A204) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P3</v>
       </c>
       <c r="D204" s="2" t="str">
-        <f>RIGHT(A204, LEN(A204) - FIND("_", A204, FIND("_", A204) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20220812</v>
       </c>
       <c r="E204" s="2" t="s">
@@ -12452,15 +12452,15 @@
         <v>207</v>
       </c>
       <c r="B205" t="str">
-        <f>_xlfn.TEXTBEFORE(A205,"_")</f>
+        <f t="shared" si="9"/>
         <v>SAR</v>
       </c>
       <c r="C205" t="str">
-        <f>MID(A205, FIND("_", A205) + 1, FIND("_", A205, FIND("_", A205) + 1) - FIND("_", A205) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P3</v>
       </c>
       <c r="D205" t="str">
-        <f>RIGHT(A205, LEN(A205) - FIND("_", A205, FIND("_", A205) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20220819</v>
       </c>
       <c r="E205" t="s">
@@ -12502,15 +12502,15 @@
         <v>210</v>
       </c>
       <c r="B206" t="str">
-        <f>_xlfn.TEXTBEFORE(A206,"_")</f>
+        <f t="shared" si="9"/>
         <v>SAR</v>
       </c>
       <c r="C206" t="str">
-        <f>MID(A206, FIND("_", A206) + 1, FIND("_", A206, FIND("_", A206) + 1) - FIND("_", A206) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P3</v>
       </c>
       <c r="D206" t="str">
-        <f>RIGHT(A206, LEN(A206) - FIND("_", A206, FIND("_", A206) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20220831</v>
       </c>
       <c r="E206" t="s">
@@ -12552,15 +12552,15 @@
         <v>213</v>
       </c>
       <c r="B207" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A207,"_")</f>
+        <f t="shared" si="9"/>
         <v>SAR</v>
       </c>
       <c r="C207" s="4" t="str">
-        <f>MID(A207, FIND("_", A207) + 1, FIND("_", A207, FIND("_", A207) + 1) - FIND("_", A207) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P3</v>
       </c>
       <c r="D207" s="4" t="str">
-        <f>RIGHT(A207, LEN(A207) - FIND("_", A207, FIND("_", A207) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20220912</v>
       </c>
       <c r="E207" s="4" t="s">
@@ -12605,15 +12605,15 @@
         <v>216</v>
       </c>
       <c r="B208" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A208,"_")</f>
+        <f t="shared" si="9"/>
         <v>SAR</v>
       </c>
       <c r="C208" s="1" t="str">
-        <f>MID(A208, FIND("_", A208) + 1, FIND("_", A208, FIND("_", A208) + 1) - FIND("_", A208) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P3</v>
       </c>
       <c r="D208" s="1" t="str">
-        <f>RIGHT(A208, LEN(A208) - FIND("_", A208, FIND("_", A208) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20220928</v>
       </c>
       <c r="E208" s="1" t="s">
@@ -12656,15 +12656,15 @@
         <v>219</v>
       </c>
       <c r="B209" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A209,"_")</f>
+        <f t="shared" si="9"/>
         <v>SAR</v>
       </c>
       <c r="C209" s="1" t="str">
-        <f>MID(A209, FIND("_", A209) + 1, FIND("_", A209, FIND("_", A209) + 1) - FIND("_", A209) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P3</v>
       </c>
       <c r="D209" s="1" t="str">
-        <f>RIGHT(A209, LEN(A209) - FIND("_", A209, FIND("_", A209) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20221019</v>
       </c>
       <c r="E209" s="1" t="s">
@@ -12707,15 +12707,15 @@
         <v>222</v>
       </c>
       <c r="B210" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A210,"_")</f>
+        <f t="shared" si="9"/>
         <v>SAR</v>
       </c>
       <c r="C210" s="1" t="str">
-        <f>MID(A210, FIND("_", A210) + 1, FIND("_", A210, FIND("_", A210) + 1) - FIND("_", A210) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P3</v>
       </c>
       <c r="D210" s="1" t="str">
-        <f>RIGHT(A210, LEN(A210) - FIND("_", A210, FIND("_", A210) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20221028</v>
       </c>
       <c r="E210" s="1" t="s">
@@ -12758,15 +12758,15 @@
         <v>223</v>
       </c>
       <c r="B211" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A211,"_")</f>
+        <f t="shared" si="9"/>
         <v>VIV</v>
       </c>
       <c r="C211" s="4" t="str">
-        <f>MID(A211, FIND("_", A211) + 1, FIND("_", A211, FIND("_", A211) + 1) - FIND("_", A211) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P1</v>
       </c>
       <c r="D211" s="4" t="str">
-        <f>RIGHT(A211, LEN(A211) - FIND("_", A211, FIND("_", A211) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20210629</v>
       </c>
       <c r="E211" s="4" t="s">
@@ -12811,15 +12811,15 @@
         <v>226</v>
       </c>
       <c r="B212" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A212,"_")</f>
+        <f t="shared" si="9"/>
         <v>VIV</v>
       </c>
       <c r="C212" s="1" t="str">
-        <f>MID(A212, FIND("_", A212) + 1, FIND("_", A212, FIND("_", A212) + 1) - FIND("_", A212) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P1</v>
       </c>
       <c r="D212" s="1" t="str">
-        <f>RIGHT(A212, LEN(A212) - FIND("_", A212, FIND("_", A212) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20210827</v>
       </c>
       <c r="E212" s="1" t="s">
@@ -12862,15 +12862,15 @@
         <v>224</v>
       </c>
       <c r="B213" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A213,"_")</f>
+        <f t="shared" si="9"/>
         <v>VIV</v>
       </c>
       <c r="C213" s="4" t="str">
-        <f>MID(A213, FIND("_", A213) + 1, FIND("_", A213, FIND("_", A213) + 1) - FIND("_", A213) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P2</v>
       </c>
       <c r="D213" s="4" t="str">
-        <f>RIGHT(A213, LEN(A213) - FIND("_", A213, FIND("_", A213) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20210629</v>
       </c>
       <c r="E213" s="4" t="s">
@@ -12915,15 +12915,15 @@
         <v>227</v>
       </c>
       <c r="B214" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A214,"_")</f>
+        <f t="shared" si="9"/>
         <v>VIV</v>
       </c>
       <c r="C214" s="1" t="str">
-        <f>MID(A214, FIND("_", A214) + 1, FIND("_", A214, FIND("_", A214) + 1) - FIND("_", A214) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P2</v>
       </c>
       <c r="D214" s="1" t="str">
-        <f>RIGHT(A214, LEN(A214) - FIND("_", A214, FIND("_", A214) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20210827</v>
       </c>
       <c r="E214" s="1" t="s">
@@ -12966,15 +12966,15 @@
         <v>225</v>
       </c>
       <c r="B215" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A215,"_")</f>
+        <f t="shared" si="9"/>
         <v>VIV</v>
       </c>
       <c r="C215" s="4" t="str">
-        <f>MID(A215, FIND("_", A215) + 1, FIND("_", A215, FIND("_", A215) + 1) - FIND("_", A215) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P3</v>
       </c>
       <c r="D215" s="4" t="str">
-        <f>RIGHT(A215, LEN(A215) - FIND("_", A215, FIND("_", A215) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20210629</v>
       </c>
       <c r="E215" s="4" t="s">
@@ -13019,15 +13019,15 @@
         <v>228</v>
       </c>
       <c r="B216" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A216,"_")</f>
+        <f t="shared" si="9"/>
         <v>VIV</v>
       </c>
       <c r="C216" s="1" t="str">
-        <f>MID(A216, FIND("_", A216) + 1, FIND("_", A216, FIND("_", A216) + 1) - FIND("_", A216) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P3</v>
       </c>
       <c r="D216" s="1" t="str">
-        <f>RIGHT(A216, LEN(A216) - FIND("_", A216, FIND("_", A216) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20210827</v>
       </c>
       <c r="E216" s="1" t="s">
@@ -13070,15 +13070,15 @@
         <v>229</v>
       </c>
       <c r="B217" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A217,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C217" s="4" t="str">
-        <f>MID(A217, FIND("_", A217) + 1, FIND("_", A217, FIND("_", A217) + 1) - FIND("_", A217) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P1</v>
       </c>
       <c r="D217" s="4" t="str">
-        <f>RIGHT(A217, LEN(A217) - FIND("_", A217, FIND("_", A217) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20210602</v>
       </c>
       <c r="E217" s="4" t="s">
@@ -13123,15 +13123,15 @@
         <v>271</v>
       </c>
       <c r="B218" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A218,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C218" s="1" t="str">
-        <f>MID(A218, FIND("_", A218) + 1, FIND("_", A218, FIND("_", A218) + 1) - FIND("_", A218) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P1</v>
       </c>
       <c r="D218" s="1" t="str">
-        <f>RIGHT(A218, LEN(A218) - FIND("_", A218, FIND("_", A218) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20210701</v>
       </c>
       <c r="E218" s="1" t="s">
@@ -13174,15 +13174,15 @@
         <v>232</v>
       </c>
       <c r="B219" t="str">
-        <f>_xlfn.TEXTBEFORE(A219,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C219" t="str">
-        <f>MID(A219, FIND("_", A219) + 1, FIND("_", A219, FIND("_", A219) + 1) - FIND("_", A219) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P1</v>
       </c>
       <c r="D219" t="str">
-        <f>RIGHT(A219, LEN(A219) - FIND("_", A219, FIND("_", A219) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20210707</v>
       </c>
       <c r="E219" t="s">
@@ -13224,15 +13224,15 @@
         <v>259</v>
       </c>
       <c r="B220" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A220,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C220" s="1" t="str">
-        <f>MID(A220, FIND("_", A220) + 1, FIND("_", A220, FIND("_", A220) + 1) - FIND("_", A220) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P1</v>
       </c>
       <c r="D220" s="1" t="str">
-        <f>RIGHT(A220, LEN(A220) - FIND("_", A220, FIND("_", A220) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20210806</v>
       </c>
       <c r="E220" s="1" t="s">
@@ -13275,15 +13275,15 @@
         <v>235</v>
       </c>
       <c r="B221" s="8" t="str">
-        <f>_xlfn.TEXTBEFORE(A221,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C221" s="8" t="str">
-        <f>MID(A221, FIND("_", A221) + 1, FIND("_", A221, FIND("_", A221) + 1) - FIND("_", A221) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P1</v>
       </c>
       <c r="D221" s="8" t="str">
-        <f>RIGHT(A221, LEN(A221) - FIND("_", A221, FIND("_", A221) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20210903</v>
       </c>
       <c r="E221" s="8" t="s">
@@ -13326,15 +13326,15 @@
         <v>238</v>
       </c>
       <c r="B222" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A222,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C222" s="2" t="str">
-        <f>MID(A222, FIND("_", A222) + 1, FIND("_", A222, FIND("_", A222) + 1) - FIND("_", A222) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P1</v>
       </c>
       <c r="D222" s="2" t="str">
-        <f>RIGHT(A222, LEN(A222) - FIND("_", A222, FIND("_", A222) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20220623</v>
       </c>
       <c r="E222" s="2" t="s">
@@ -13377,15 +13377,15 @@
         <v>241</v>
       </c>
       <c r="B223" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A223,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C223" s="2" t="str">
-        <f>MID(A223, FIND("_", A223) + 1, FIND("_", A223, FIND("_", A223) + 1) - FIND("_", A223) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P1</v>
       </c>
       <c r="D223" s="2" t="str">
-        <f>RIGHT(A223, LEN(A223) - FIND("_", A223, FIND("_", A223) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20220726</v>
       </c>
       <c r="E223" s="2" t="s">
@@ -13428,15 +13428,15 @@
         <v>244</v>
       </c>
       <c r="B224" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A224,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C224" s="2" t="str">
-        <f>MID(A224, FIND("_", A224) + 1, FIND("_", A224, FIND("_", A224) + 1) - FIND("_", A224) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P1</v>
       </c>
       <c r="D224" s="2" t="str">
-        <f>RIGHT(A224, LEN(A224) - FIND("_", A224, FIND("_", A224) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20220817</v>
       </c>
       <c r="E224" s="2" t="s">
@@ -13479,15 +13479,15 @@
         <v>248</v>
       </c>
       <c r="B225" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A225,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C225" s="2" t="str">
-        <f>MID(A225, FIND("_", A225) + 1, FIND("_", A225, FIND("_", A225) + 1) - FIND("_", A225) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P1</v>
       </c>
       <c r="D225" s="2" t="str">
-        <f>RIGHT(A225, LEN(A225) - FIND("_", A225, FIND("_", A225) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20220907</v>
       </c>
       <c r="E225" s="2" t="s">
@@ -13530,15 +13530,15 @@
         <v>248</v>
       </c>
       <c r="B226" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A226,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C226" s="2" t="str">
-        <f>MID(A226, FIND("_", A226) + 1, FIND("_", A226, FIND("_", A226) + 1) - FIND("_", A226) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P1</v>
       </c>
       <c r="D226" s="2" t="str">
-        <f>RIGHT(A226, LEN(A226) - FIND("_", A226, FIND("_", A226) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20220907</v>
       </c>
       <c r="E226" s="2" t="s">
@@ -13581,15 +13581,15 @@
         <v>251</v>
       </c>
       <c r="B227" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A227,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C227" s="2" t="str">
-        <f>MID(A227, FIND("_", A227) + 1, FIND("_", A227, FIND("_", A227) + 1) - FIND("_", A227) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P1</v>
       </c>
       <c r="D227" s="2" t="str">
-        <f>RIGHT(A227, LEN(A227) - FIND("_", A227, FIND("_", A227) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20221017</v>
       </c>
       <c r="E227" s="2" t="s">
@@ -13632,15 +13632,15 @@
         <v>230</v>
       </c>
       <c r="B228" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A228,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C228" s="4" t="str">
-        <f>MID(A228, FIND("_", A228) + 1, FIND("_", A228, FIND("_", A228) + 1) - FIND("_", A228) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P2</v>
       </c>
       <c r="D228" s="4" t="str">
-        <f>RIGHT(A228, LEN(A228) - FIND("_", A228, FIND("_", A228) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20210602</v>
       </c>
       <c r="E228" s="4" t="s">
@@ -13685,15 +13685,15 @@
         <v>233</v>
       </c>
       <c r="B229" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A229,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C229" s="2" t="str">
-        <f>MID(A229, FIND("_", A229) + 1, FIND("_", A229, FIND("_", A229) + 1) - FIND("_", A229) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P2</v>
       </c>
       <c r="D229" s="2" t="str">
-        <f>RIGHT(A229, LEN(A229) - FIND("_", A229, FIND("_", A229) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20210707</v>
       </c>
       <c r="E229" s="2" t="s">
@@ -13736,15 +13736,15 @@
         <v>260</v>
       </c>
       <c r="B230" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A230,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C230" s="1" t="str">
-        <f>MID(A230, FIND("_", A230) + 1, FIND("_", A230, FIND("_", A230) + 1) - FIND("_", A230) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P2</v>
       </c>
       <c r="D230" s="1" t="str">
-        <f>RIGHT(A230, LEN(A230) - FIND("_", A230, FIND("_", A230) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20210806</v>
       </c>
       <c r="E230" s="1" t="s">
@@ -13787,15 +13787,15 @@
         <v>236</v>
       </c>
       <c r="B231" s="8" t="str">
-        <f>_xlfn.TEXTBEFORE(A231,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C231" s="8" t="str">
-        <f>MID(A231, FIND("_", A231) + 1, FIND("_", A231, FIND("_", A231) + 1) - FIND("_", A231) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P2</v>
       </c>
       <c r="D231" s="8" t="str">
-        <f>RIGHT(A231, LEN(A231) - FIND("_", A231, FIND("_", A231) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20210903</v>
       </c>
       <c r="E231" s="8" t="s">
@@ -13838,15 +13838,15 @@
         <v>239</v>
       </c>
       <c r="B232" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A232,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C232" s="2" t="str">
-        <f>MID(A232, FIND("_", A232) + 1, FIND("_", A232, FIND("_", A232) + 1) - FIND("_", A232) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P2</v>
       </c>
       <c r="D232" s="2" t="str">
-        <f>RIGHT(A232, LEN(A232) - FIND("_", A232, FIND("_", A232) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20220623</v>
       </c>
       <c r="E232" s="2" t="s">
@@ -13889,15 +13889,15 @@
         <v>242</v>
       </c>
       <c r="B233" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A233,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C233" s="2" t="str">
-        <f>MID(A233, FIND("_", A233) + 1, FIND("_", A233, FIND("_", A233) + 1) - FIND("_", A233) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P2</v>
       </c>
       <c r="D233" s="2" t="str">
-        <f>RIGHT(A233, LEN(A233) - FIND("_", A233, FIND("_", A233) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20220726</v>
       </c>
       <c r="E233" s="2" t="s">
@@ -13940,15 +13940,15 @@
         <v>246</v>
       </c>
       <c r="B234" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A234,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C234" s="2" t="str">
-        <f>MID(A234, FIND("_", A234) + 1, FIND("_", A234, FIND("_", A234) + 1) - FIND("_", A234) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P2</v>
       </c>
       <c r="D234" s="2" t="str">
-        <f>RIGHT(A234, LEN(A234) - FIND("_", A234, FIND("_", A234) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20220817</v>
       </c>
       <c r="E234" s="2" t="s">
@@ -13991,15 +13991,15 @@
         <v>246</v>
       </c>
       <c r="B235" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A235,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C235" s="2" t="str">
-        <f>MID(A235, FIND("_", A235) + 1, FIND("_", A235, FIND("_", A235) + 1) - FIND("_", A235) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P2</v>
       </c>
       <c r="D235" s="2" t="str">
-        <f>RIGHT(A235, LEN(A235) - FIND("_", A235, FIND("_", A235) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20220817</v>
       </c>
       <c r="E235" s="2" t="s">
@@ -14042,15 +14042,15 @@
         <v>249</v>
       </c>
       <c r="B236" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A236,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C236" s="2" t="str">
-        <f>MID(A236, FIND("_", A236) + 1, FIND("_", A236, FIND("_", A236) + 1) - FIND("_", A236) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P2</v>
       </c>
       <c r="D236" s="2" t="str">
-        <f>RIGHT(A236, LEN(A236) - FIND("_", A236, FIND("_", A236) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20220907</v>
       </c>
       <c r="E236" s="2" t="s">
@@ -14093,15 +14093,15 @@
         <v>252</v>
       </c>
       <c r="B237" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A237,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C237" s="2" t="str">
-        <f>MID(A237, FIND("_", A237) + 1, FIND("_", A237, FIND("_", A237) + 1) - FIND("_", A237) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P2</v>
       </c>
       <c r="D237" s="2" t="str">
-        <f>RIGHT(A237, LEN(A237) - FIND("_", A237, FIND("_", A237) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20221017</v>
       </c>
       <c r="E237" s="2" t="s">
@@ -14144,15 +14144,15 @@
         <v>231</v>
       </c>
       <c r="B238" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A238,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C238" s="4" t="str">
-        <f>MID(A238, FIND("_", A238) + 1, FIND("_", A238, FIND("_", A238) + 1) - FIND("_", A238) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P3</v>
       </c>
       <c r="D238" s="4" t="str">
-        <f>RIGHT(A238, LEN(A238) - FIND("_", A238, FIND("_", A238) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20210602</v>
       </c>
       <c r="E238" s="4" t="s">
@@ -14197,15 +14197,15 @@
         <v>234</v>
       </c>
       <c r="B239" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A239,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C239" s="2" t="str">
-        <f>MID(A239, FIND("_", A239) + 1, FIND("_", A239, FIND("_", A239) + 1) - FIND("_", A239) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P3</v>
       </c>
       <c r="D239" s="2" t="str">
-        <f>RIGHT(A239, LEN(A239) - FIND("_", A239, FIND("_", A239) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20210707</v>
       </c>
       <c r="E239" s="2" t="s">
@@ -14248,15 +14248,15 @@
         <v>261</v>
       </c>
       <c r="B240" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A240,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C240" s="1" t="str">
-        <f>MID(A240, FIND("_", A240) + 1, FIND("_", A240, FIND("_", A240) + 1) - FIND("_", A240) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P3</v>
       </c>
       <c r="D240" s="1" t="str">
-        <f>RIGHT(A240, LEN(A240) - FIND("_", A240, FIND("_", A240) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20210806</v>
       </c>
       <c r="E240" s="1" t="s">
@@ -14299,15 +14299,15 @@
         <v>237</v>
       </c>
       <c r="B241" s="8" t="str">
-        <f>_xlfn.TEXTBEFORE(A241,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C241" s="8" t="str">
-        <f>MID(A241, FIND("_", A241) + 1, FIND("_", A241, FIND("_", A241) + 1) - FIND("_", A241) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P3</v>
       </c>
       <c r="D241" s="8" t="str">
-        <f>RIGHT(A241, LEN(A241) - FIND("_", A241, FIND("_", A241) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20210903</v>
       </c>
       <c r="E241" s="8" t="s">
@@ -14350,15 +14350,15 @@
         <v>240</v>
       </c>
       <c r="B242" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A242,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C242" s="4" t="str">
-        <f>MID(A242, FIND("_", A242) + 1, FIND("_", A242, FIND("_", A242) + 1) - FIND("_", A242) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P3</v>
       </c>
       <c r="D242" s="4" t="str">
-        <f>RIGHT(A242, LEN(A242) - FIND("_", A242, FIND("_", A242) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20220623</v>
       </c>
       <c r="E242" s="4" t="s">
@@ -14403,15 +14403,15 @@
         <v>243</v>
       </c>
       <c r="B243" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A243,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C243" s="4" t="str">
-        <f>MID(A243, FIND("_", A243) + 1, FIND("_", A243, FIND("_", A243) + 1) - FIND("_", A243) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P3</v>
       </c>
       <c r="D243" s="4" t="str">
-        <f>RIGHT(A243, LEN(A243) - FIND("_", A243, FIND("_", A243) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20220726</v>
       </c>
       <c r="E243" s="4" t="s">
@@ -14456,15 +14456,15 @@
         <v>247</v>
       </c>
       <c r="B244" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A244,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C244" s="4" t="str">
-        <f>MID(A244, FIND("_", A244) + 1, FIND("_", A244, FIND("_", A244) + 1) - FIND("_", A244) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P3</v>
       </c>
       <c r="D244" s="4" t="str">
-        <f>RIGHT(A244, LEN(A244) - FIND("_", A244, FIND("_", A244) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20220817</v>
       </c>
       <c r="E244" s="4" t="s">
@@ -14509,15 +14509,15 @@
         <v>250</v>
       </c>
       <c r="B245" s="4" t="str">
-        <f>_xlfn.TEXTBEFORE(A245,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C245" s="4" t="str">
-        <f>MID(A245, FIND("_", A245) + 1, FIND("_", A245, FIND("_", A245) + 1) - FIND("_", A245) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P3</v>
       </c>
       <c r="D245" s="4" t="str">
-        <f>RIGHT(A245, LEN(A245) - FIND("_", A245, FIND("_", A245) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20220907</v>
       </c>
       <c r="E245" s="4" t="s">
@@ -14562,15 +14562,15 @@
         <v>272</v>
       </c>
       <c r="B246" s="1" t="str">
-        <f>_xlfn.TEXTBEFORE(A246,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C246" s="1" t="str">
-        <f>MID(A246, FIND("_", A246) + 1, FIND("_", A246, FIND("_", A246) + 1) - FIND("_", A246) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P3</v>
       </c>
       <c r="D246" s="1" t="str">
-        <f>RIGHT(A246, LEN(A246) - FIND("_", A246, FIND("_", A246) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20221012</v>
       </c>
       <c r="E246" s="1" t="s">
@@ -14613,15 +14613,15 @@
         <v>253</v>
       </c>
       <c r="B247" s="2" t="str">
-        <f>_xlfn.TEXTBEFORE(A247,"_")</f>
+        <f t="shared" si="9"/>
         <v>WHE</v>
       </c>
       <c r="C247" s="2" t="str">
-        <f>MID(A247, FIND("_", A247) + 1, FIND("_", A247, FIND("_", A247) + 1) - FIND("_", A247) - 1)</f>
+        <f t="shared" si="10"/>
         <v>P3</v>
       </c>
       <c r="D247" s="2" t="str">
-        <f>RIGHT(A247, LEN(A247) - FIND("_", A247, FIND("_", A247) + 1))</f>
+        <f t="shared" si="11"/>
         <v>20221017</v>
       </c>
       <c r="E247" s="2" t="s">
@@ -26625,7 +26625,7 @@
       <c r="P3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="16" t="s">
         <v>339</v>
       </c>
       <c r="S3" s="9" t="s">
@@ -36207,34 +36207,34 @@
       <c r="E195" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="F195" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G195" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H195" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I195" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J195" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="K195" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L195" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="M195" s="16" t="s">
+      <c r="F195" t="s">
+        <v>12</v>
+      </c>
+      <c r="G195" t="s">
+        <v>12</v>
+      </c>
+      <c r="H195" t="s">
+        <v>13</v>
+      </c>
+      <c r="I195" t="s">
+        <v>13</v>
+      </c>
+      <c r="J195" t="s">
+        <v>12</v>
+      </c>
+      <c r="K195" t="s">
+        <v>12</v>
+      </c>
+      <c r="L195" t="s">
+        <v>14</v>
+      </c>
+      <c r="M195" t="s">
         <v>14</v>
       </c>
       <c r="N195" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O195" s="16" t="s">
+      <c r="O195" t="s">
         <v>14</v>
       </c>
       <c r="P195" s="4" t="s">
@@ -36257,34 +36257,34 @@
       <c r="E196" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="F196" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G196" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H196" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I196" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J196" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="K196" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L196" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="M196" s="16" t="s">
+      <c r="F196" t="s">
+        <v>12</v>
+      </c>
+      <c r="G196" t="s">
+        <v>12</v>
+      </c>
+      <c r="H196" t="s">
+        <v>13</v>
+      </c>
+      <c r="I196" t="s">
+        <v>13</v>
+      </c>
+      <c r="J196" t="s">
+        <v>12</v>
+      </c>
+      <c r="K196" t="s">
+        <v>12</v>
+      </c>
+      <c r="L196" t="s">
+        <v>14</v>
+      </c>
+      <c r="M196" t="s">
         <v>14</v>
       </c>
       <c r="N196" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O196" s="16" t="s">
+      <c r="O196" t="s">
         <v>14</v>
       </c>
       <c r="P196" s="4" t="s">
@@ -36307,34 +36307,34 @@
       <c r="E197" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="F197" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G197" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H197" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I197" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J197" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="K197" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L197" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="M197" s="16" t="s">
+      <c r="F197" t="s">
+        <v>12</v>
+      </c>
+      <c r="G197" t="s">
+        <v>12</v>
+      </c>
+      <c r="H197" t="s">
+        <v>13</v>
+      </c>
+      <c r="I197" t="s">
+        <v>13</v>
+      </c>
+      <c r="J197" t="s">
+        <v>12</v>
+      </c>
+      <c r="K197" t="s">
+        <v>12</v>
+      </c>
+      <c r="L197" t="s">
+        <v>14</v>
+      </c>
+      <c r="M197" t="s">
         <v>14</v>
       </c>
       <c r="N197" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O197" s="16" t="s">
+      <c r="O197" t="s">
         <v>14</v>
       </c>
       <c r="P197" s="4" t="s">
@@ -38258,7 +38258,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N35" sqref="N35"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38290,13 +38290,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="17">
         <v>20210720</v>
       </c>
       <c r="F2" t="s">
@@ -38304,13 +38304,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="17">
         <v>20210720</v>
       </c>
       <c r="F3" t="s">
@@ -38318,13 +38318,13 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="17">
         <v>20210720</v>
       </c>
       <c r="F4" t="s">
@@ -38332,13 +38332,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="17">
         <v>20210824</v>
       </c>
       <c r="F5" t="s">
@@ -38346,13 +38346,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="17">
         <v>20210824</v>
       </c>
       <c r="F6" t="s">
@@ -38360,13 +38360,13 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="17">
         <v>20210824</v>
       </c>
       <c r="F7" t="s">
@@ -38374,13 +38374,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="17">
         <v>20220715</v>
       </c>
       <c r="E8" t="s">
@@ -38388,13 +38388,13 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="17">
         <v>20220715</v>
       </c>
       <c r="E9" t="s">
@@ -38402,13 +38402,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="17">
         <v>20220715</v>
       </c>
       <c r="E10" t="s">
@@ -38416,13 +38416,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="17">
         <v>20220812</v>
       </c>
       <c r="E11" t="s">
@@ -38430,13 +38430,13 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="17">
         <v>20220812</v>
       </c>
       <c r="E12" t="s">
@@ -38444,13 +38444,13 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="17">
         <v>20220812</v>
       </c>
       <c r="E13" t="s">
@@ -38458,13 +38458,13 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="17">
         <v>20221017</v>
       </c>
       <c r="E14" t="s">
@@ -38472,13 +38472,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="17">
         <v>20221017</v>
       </c>
       <c r="E15" t="s">
@@ -38486,13 +38486,13 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="17">
         <v>20220510</v>
       </c>
       <c r="E16" t="s">
@@ -38500,13 +38500,13 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="17">
         <v>20220510</v>
       </c>
       <c r="E17" t="s">
@@ -38514,13 +38514,13 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="17">
         <v>20220510</v>
       </c>
       <c r="E18" t="s">
@@ -38528,13 +38528,13 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="17">
         <v>20221019</v>
       </c>
       <c r="D19" t="s">
@@ -38545,13 +38545,13 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="17">
         <v>20221019</v>
       </c>
       <c r="D20" t="s">
@@ -38562,13 +38562,13 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="17">
         <v>20210630</v>
       </c>
       <c r="F21" t="s">
@@ -38576,13 +38576,13 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="17">
         <v>20210630</v>
       </c>
       <c r="F22" t="s">
@@ -38590,13 +38590,13 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="17">
         <v>20210630</v>
       </c>
       <c r="F23" t="s">
@@ -38604,13 +38604,13 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="17">
         <v>20211001</v>
       </c>
       <c r="F24" t="s">
@@ -38618,13 +38618,13 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="17">
         <v>20210712</v>
       </c>
       <c r="E25" t="s">
@@ -38632,13 +38632,13 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="17">
         <v>20210809</v>
       </c>
       <c r="F26" t="s">
@@ -38646,13 +38646,13 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="17">
         <v>20210809</v>
       </c>
       <c r="F27" t="s">
@@ -38660,13 +38660,13 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="17">
         <v>20210809</v>
       </c>
       <c r="F28" t="s">
@@ -38674,13 +38674,13 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="17">
         <v>20220601</v>
       </c>
       <c r="E29" t="s">
@@ -38688,13 +38688,13 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="17">
         <v>20220601</v>
       </c>
       <c r="E30" t="s">
@@ -38702,13 +38702,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="17">
         <v>20220601</v>
       </c>
       <c r="E31" t="s">
@@ -38716,13 +38716,13 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="17">
         <v>20210611</v>
       </c>
       <c r="D32" t="s">
@@ -38730,13 +38730,13 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="17">
         <v>20210611</v>
       </c>
       <c r="D33" t="s">
@@ -38744,13 +38744,13 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="17">
         <v>20210611</v>
       </c>
       <c r="D34" t="s">
@@ -38758,13 +38758,13 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="17">
         <v>20220524</v>
       </c>
       <c r="E35" t="s">
@@ -38772,13 +38772,13 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="17">
         <v>20220524</v>
       </c>
       <c r="E36" t="s">
@@ -38786,13 +38786,13 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="17">
         <v>20220524</v>
       </c>
       <c r="E37" t="s">
@@ -38800,13 +38800,13 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="17">
         <v>20220831</v>
       </c>
       <c r="E38" t="s">
@@ -38814,13 +38814,13 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="17">
         <v>20220831</v>
       </c>
       <c r="E39" t="s">
@@ -38828,13 +38828,13 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="17">
         <v>20220831</v>
       </c>
       <c r="E40" t="s">
@@ -38842,13 +38842,13 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="17">
         <v>20220912</v>
       </c>
       <c r="F41" t="s">
@@ -38856,13 +38856,13 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="17">
         <v>20220912</v>
       </c>
       <c r="F42" t="s">
@@ -38870,13 +38870,13 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="17">
         <v>20220912</v>
       </c>
       <c r="F43" t="s">
@@ -38884,13 +38884,13 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="17">
         <v>20221019</v>
       </c>
       <c r="D44" t="s">
@@ -38901,13 +38901,13 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="17">
         <v>20221019</v>
       </c>
       <c r="D45" t="s">
@@ -38918,13 +38918,13 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="17">
         <v>20221019</v>
       </c>
       <c r="D46" t="s">
@@ -38935,13 +38935,13 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="17">
         <v>20210629</v>
       </c>
       <c r="F47" t="s">
@@ -38949,13 +38949,13 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="17">
         <v>20210629</v>
       </c>
       <c r="F48" t="s">
@@ -38963,13 +38963,13 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="17">
         <v>20210629</v>
       </c>
       <c r="F49" t="s">
@@ -38977,13 +38977,13 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="17">
         <v>20210602</v>
       </c>
       <c r="D50" t="s">
@@ -38991,13 +38991,13 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="17">
         <v>20210602</v>
       </c>
       <c r="D51" t="s">
@@ -39005,13 +39005,13 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="17">
         <v>20210602</v>
       </c>
       <c r="D52" t="s">
